--- a/whatsapp-bot/מוזמנים חתונה.xlsx
+++ b/whatsapp-bot/מוזמנים חתונה.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="384">
   <si>
     <t>שם המוזמן</t>
   </si>
@@ -577,7 +577,7 @@
     <t>ענת כהן</t>
   </si>
   <si>
-    <t>ריקי עבדו</t>
+    <t>ריקי ואנונו</t>
   </si>
   <si>
     <t>אליאן מכבי כהן</t>
@@ -769,7 +769,7 @@
     <t xml:space="preserve"> יחיאל דהרי </t>
   </si>
   <si>
-    <t xml:space="preserve"> יצחק דוד</t>
+    <t xml:space="preserve"> צחי דוד</t>
   </si>
   <si>
     <t xml:space="preserve"> זיו ויכטר</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">ראובן בוחניק </t>
   </si>
   <si>
-    <t xml:space="preserve">איתן עדירי </t>
+    <t xml:space="preserve">איתן אדירי </t>
   </si>
   <si>
     <t xml:space="preserve"> אבי אלחדד</t>
@@ -937,6 +937,15 @@
     <t>טיבור שפירל</t>
   </si>
   <si>
+    <t>דקל כחלון</t>
+  </si>
+  <si>
+    <t>איילת עזריאלי</t>
+  </si>
+  <si>
+    <t>נימי מימון</t>
+  </si>
+  <si>
     <t>שושנה אדרי</t>
   </si>
   <si>
@@ -1096,10 +1105,19 @@
     <t>עמית קפלן</t>
   </si>
   <si>
+    <t>יצחק בן מאיר</t>
+  </si>
+  <si>
     <t>טל זוזוט</t>
   </si>
   <si>
     <t xml:space="preserve"> עבודה חתן</t>
+  </si>
+  <si>
+    <t>גידי ובר</t>
+  </si>
+  <si>
+    <t>עבודה חתן</t>
   </si>
   <si>
     <t>דניאל פירו</t>
@@ -1395,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1530,6 +1548,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="24" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="25" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -5765,59 +5786,59 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="23" t="s">
+      <c r="A277" s="46" t="s">
         <v>308</v>
       </c>
       <c r="B277" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C277" s="20">
-        <v>5.0345579E8</v>
-      </c>
-      <c r="D277" s="46" t="s">
+        <v>5.2453311E8</v>
+      </c>
+      <c r="D277" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="46" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="23" t="s">
+      <c r="B278" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C278" s="20">
+        <v>5.37678861E8</v>
+      </c>
+      <c r="D278" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="B278" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C278" s="20">
-        <v>5.24492276E8</v>
-      </c>
-      <c r="D278" s="46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="23" t="s">
-        <v>311</v>
-      </c>
       <c r="B279" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C279" s="20">
-        <v>5.03386781E8</v>
-      </c>
-      <c r="D279" s="46" t="s">
-        <v>309</v>
+        <v>5.37678305E8</v>
+      </c>
+      <c r="D279" s="43" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B280" s="20">
         <v>2.0</v>
       </c>
       <c r="C280" s="20">
-        <v>5.09035155E8</v>
-      </c>
-      <c r="D280" s="46" t="s">
-        <v>309</v>
+        <v>5.0345579E8</v>
+      </c>
+      <c r="D280" s="47" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="281">
@@ -5828,52 +5849,52 @@
         <v>2.0</v>
       </c>
       <c r="C281" s="20">
-        <v>5.24371618E8</v>
+        <v>5.24492276E8</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B282" s="20">
         <v>2.0</v>
       </c>
       <c r="C282" s="20">
-        <v>5.24020776E8</v>
+        <v>5.03386781E8</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B283" s="20">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C283" s="20">
-        <v>5.4723052E8</v>
+        <v>5.09035155E8</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B284" s="20">
         <v>2.0</v>
       </c>
       <c r="C284" s="20">
-        <v>5.23996314E8</v>
-      </c>
-      <c r="D284" s="47" t="s">
-        <v>314</v>
+        <v>5.24371618E8</v>
+      </c>
+      <c r="D284" s="48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="285">
@@ -5884,24 +5905,24 @@
         <v>2.0</v>
       </c>
       <c r="C285" s="20">
-        <v>5.4533594E8</v>
-      </c>
-      <c r="D285" s="47" t="s">
-        <v>314</v>
+        <v>5.24020776E8</v>
+      </c>
+      <c r="D285" s="48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="25" t="s">
+      <c r="A286" s="23" t="s">
         <v>319</v>
       </c>
       <c r="B286" s="20">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C286" s="20">
-        <v>5.03871282E8</v>
-      </c>
-      <c r="D286" s="47" t="s">
-        <v>314</v>
+        <v>5.4723052E8</v>
+      </c>
+      <c r="D286" s="48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="287">
@@ -5912,52 +5933,52 @@
         <v>2.0</v>
       </c>
       <c r="C287" s="20">
-        <v>5.23650013E8</v>
+        <v>5.23996314E8</v>
       </c>
       <c r="D287" s="48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B288" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C288" s="20">
+        <v>5.4533594E8</v>
+      </c>
+      <c r="D288" s="48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B288" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C288" s="20">
-        <v>5.08281287E8</v>
-      </c>
-      <c r="D288" s="48" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="23" t="s">
+      <c r="B289" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C289" s="20">
+        <v>5.03871282E8</v>
+      </c>
+      <c r="D289" s="48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="B289" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C289" s="20">
-        <v>5.45601439E8</v>
-      </c>
-      <c r="D289" s="48" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="B290" s="20">
         <v>2.0</v>
       </c>
       <c r="C290" s="20">
-        <v>5.47630336E8</v>
-      </c>
-      <c r="D290" s="48" t="s">
-        <v>321</v>
+        <v>5.23650013E8</v>
+      </c>
+      <c r="D290" s="49" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="291">
@@ -5968,80 +5989,80 @@
         <v>4.0</v>
       </c>
       <c r="C291" s="20">
-        <v>5.26025724E8</v>
+        <v>5.08281287E8</v>
       </c>
       <c r="D291" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B292" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C292" s="20">
+        <v>5.45601439E8</v>
+      </c>
+      <c r="D292" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="16" t="s">
         <v>327</v>
-      </c>
-      <c r="B292" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C292" s="20">
-        <v>5.25770507E8</v>
-      </c>
-      <c r="D292" s="49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="B293" s="20">
         <v>2.0</v>
       </c>
       <c r="C293" s="20">
-        <v>5.24708807E8</v>
-      </c>
-      <c r="D293" s="50" t="s">
-        <v>329</v>
+        <v>5.47630336E8</v>
+      </c>
+      <c r="D293" s="49" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="16" t="s">
-        <v>330</v>
+      <c r="A294" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="B294" s="20">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C294" s="20">
-        <v>5.05858141E8</v>
+        <v>5.26025724E8</v>
       </c>
       <c r="D294" s="50" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="295" ht="17.25" customHeight="1">
-      <c r="A295" s="16" t="s">
-        <v>331</v>
+    <row r="295">
+      <c r="A295" s="23" t="s">
+        <v>330</v>
       </c>
       <c r="B295" s="20">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C295" s="20">
-        <v>5.23953711E8</v>
+        <v>5.25770507E8</v>
       </c>
       <c r="D295" s="50" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="16" t="s">
-        <v>332</v>
+      <c r="A296" s="23" t="s">
+        <v>331</v>
       </c>
       <c r="B296" s="20">
         <v>2.0</v>
       </c>
       <c r="C296" s="20">
-        <v>5.07344119E8</v>
-      </c>
-      <c r="D296" s="50" t="s">
-        <v>329</v>
+        <v>5.24708807E8</v>
+      </c>
+      <c r="D296" s="51" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="297">
@@ -6049,139 +6070,139 @@
         <v>333</v>
       </c>
       <c r="B297" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C297" s="20">
-        <v>5.32100004E8</v>
-      </c>
-      <c r="D297" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="23" t="s">
+        <v>5.05858141E8</v>
+      </c>
+      <c r="D297" s="51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="298" ht="17.25" customHeight="1">
+      <c r="A298" s="16" t="s">
         <v>334</v>
       </c>
       <c r="B298" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C298" s="20">
-        <v>5.06493714E8</v>
+        <v>5.23953711E8</v>
       </c>
       <c r="D298" s="51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="16" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="23" t="s">
-        <v>336</v>
       </c>
       <c r="B299" s="20">
         <v>2.0</v>
       </c>
       <c r="C299" s="20">
-        <v>5.33363195E8</v>
+        <v>5.07344119E8</v>
       </c>
       <c r="D299" s="51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="23" t="s">
-        <v>337</v>
+      <c r="A300" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="B300" s="20">
         <v>1.0</v>
       </c>
       <c r="C300" s="20">
-        <v>5.42123024E8</v>
+        <v>5.32100004E8</v>
       </c>
       <c r="D300" s="51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B301" s="20">
         <v>2.0</v>
       </c>
       <c r="C301" s="20">
-        <v>5.47193716E8</v>
-      </c>
-      <c r="D301" s="51" t="s">
-        <v>339</v>
+        <v>5.06493714E8</v>
+      </c>
+      <c r="D301" s="52" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C302" s="20">
-        <v>5.24882344E8</v>
-      </c>
-      <c r="D302" s="51" t="s">
-        <v>339</v>
+        <v>5.33363195E8</v>
+      </c>
+      <c r="D302" s="52" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B303" s="20">
         <v>1.0</v>
       </c>
       <c r="C303" s="20">
-        <v>5.45407678E8</v>
-      </c>
-      <c r="D303" s="51" t="s">
-        <v>342</v>
+        <v>5.42123024E8</v>
+      </c>
+      <c r="D303" s="52" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B304" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C304" s="20">
-        <v>5.24298958E8</v>
-      </c>
-      <c r="D304" s="51" t="s">
+        <v>5.47193716E8</v>
+      </c>
+      <c r="D304" s="52" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B305" s="20">
         <v>1.0</v>
       </c>
       <c r="C305" s="20">
-        <v>5.43075877E8</v>
-      </c>
-      <c r="D305" s="51" t="s">
+        <v>5.24882344E8</v>
+      </c>
+      <c r="D305" s="52" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B306" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C306" s="20">
+        <v>5.45407678E8</v>
+      </c>
+      <c r="D306" s="52" t="s">
         <v>345</v>
-      </c>
-      <c r="B306" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C306" s="20">
-        <v>5.07447346E8</v>
-      </c>
-      <c r="D306" s="51" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="307">
@@ -6192,10 +6213,10 @@
         <v>1.0</v>
       </c>
       <c r="C307" s="20">
-        <v>5.45677528E8</v>
-      </c>
-      <c r="D307" s="51" t="s">
-        <v>342</v>
+        <v>5.24298958E8</v>
+      </c>
+      <c r="D307" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="308">
@@ -6206,10 +6227,10 @@
         <v>1.0</v>
       </c>
       <c r="C308" s="20">
-        <v>5.47848776E8</v>
-      </c>
-      <c r="D308" s="51" t="s">
-        <v>342</v>
+        <v>5.43075877E8</v>
+      </c>
+      <c r="D308" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="309">
@@ -6220,10 +6241,10 @@
         <v>1.0</v>
       </c>
       <c r="C309" s="20">
-        <v>5.05741628E8</v>
-      </c>
-      <c r="D309" s="51" t="s">
-        <v>342</v>
+        <v>5.07447346E8</v>
+      </c>
+      <c r="D309" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="310">
@@ -6234,10 +6255,10 @@
         <v>1.0</v>
       </c>
       <c r="C310" s="20">
-        <v>5.28842558E8</v>
-      </c>
-      <c r="D310" s="51" t="s">
-        <v>342</v>
+        <v>5.45677528E8</v>
+      </c>
+      <c r="D310" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="311">
@@ -6248,10 +6269,10 @@
         <v>1.0</v>
       </c>
       <c r="C311" s="20">
-        <v>5.4808222E8</v>
-      </c>
-      <c r="D311" s="51" t="s">
-        <v>342</v>
+        <v>5.47848776E8</v>
+      </c>
+      <c r="D311" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="312">
@@ -6262,10 +6283,10 @@
         <v>1.0</v>
       </c>
       <c r="C312" s="20">
-        <v>5.45299086E8</v>
-      </c>
-      <c r="D312" s="51" t="s">
-        <v>342</v>
+        <v>5.05741628E8</v>
+      </c>
+      <c r="D312" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="313">
@@ -6276,10 +6297,10 @@
         <v>1.0</v>
       </c>
       <c r="C313" s="20">
-        <v>5.26898625E8</v>
-      </c>
-      <c r="D313" s="51" t="s">
-        <v>342</v>
+        <v>5.28842558E8</v>
+      </c>
+      <c r="D313" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="314">
@@ -6290,52 +6311,52 @@
         <v>1.0</v>
       </c>
       <c r="C314" s="20">
-        <v>5.4646097E8</v>
+        <v>5.4808222E8</v>
       </c>
       <c r="D314" s="52" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315" s="20">
         <v>1.0</v>
       </c>
       <c r="C315" s="20">
-        <v>5.0697993E8</v>
+        <v>5.45299086E8</v>
       </c>
       <c r="D315" s="52" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C316" s="20">
-        <v>5.4473459E8</v>
+        <v>5.26898625E8</v>
       </c>
       <c r="D316" s="52" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B317" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C317" s="20">
+        <v>5.4646097E8</v>
+      </c>
+      <c r="D317" s="53" t="s">
         <v>357</v>
-      </c>
-      <c r="B317" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C317" s="20">
-        <v>5.28628018E8</v>
-      </c>
-      <c r="D317" s="52" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="318">
@@ -6346,24 +6367,24 @@
         <v>1.0</v>
       </c>
       <c r="C318" s="20">
-        <v>5.47729912E8</v>
-      </c>
-      <c r="D318" s="52" t="s">
-        <v>354</v>
+        <v>5.0697993E8</v>
+      </c>
+      <c r="D318" s="53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="25" t="s">
+      <c r="A319" s="23" t="s">
         <v>359</v>
       </c>
       <c r="B319" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C319" s="20">
-        <v>5.47944501E8</v>
-      </c>
-      <c r="D319" s="52" t="s">
-        <v>354</v>
+        <v>5.4473459E8</v>
+      </c>
+      <c r="D319" s="53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="320">
@@ -6374,10 +6395,10 @@
         <v>1.0</v>
       </c>
       <c r="C320" s="20">
-        <v>5.2860992E8</v>
-      </c>
-      <c r="D320" s="52" t="s">
-        <v>354</v>
+        <v>5.28628018E8</v>
+      </c>
+      <c r="D320" s="53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="321">
@@ -6388,66 +6409,66 @@
         <v>1.0</v>
       </c>
       <c r="C321" s="20">
-        <v>5.4576764E8</v>
+        <v>5.47729912E8</v>
       </c>
       <c r="D321" s="53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="25" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="23" t="s">
-        <v>363</v>
-      </c>
       <c r="B322" s="20">
         <v>1.0</v>
       </c>
       <c r="C322" s="20">
-        <v>5.35322774E8</v>
+        <v>5.47944501E8</v>
       </c>
       <c r="D322" s="53" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B323" s="20">
         <v>1.0</v>
       </c>
       <c r="C323" s="20">
-        <v>5.27044823E8</v>
+        <v>5.2860992E8</v>
       </c>
       <c r="D323" s="53" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B324" s="20">
         <v>1.0</v>
       </c>
       <c r="C324" s="20">
-        <v>5.26547679E8</v>
+        <v>5.24148278E8</v>
       </c>
       <c r="D324" s="53" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B325" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C325" s="20">
+        <v>5.4576764E8</v>
+      </c>
+      <c r="D325" s="54" t="s">
         <v>366</v>
-      </c>
-      <c r="B325" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C325" s="20">
-        <v>5.03042291E8</v>
-      </c>
-      <c r="D325" s="53" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="326">
@@ -6458,2207 +6479,2277 @@
         <v>1.0</v>
       </c>
       <c r="C326" s="20">
-        <v>5.08259208E8</v>
-      </c>
-      <c r="D326" s="53" t="s">
-        <v>362</v>
+        <v>5.04078816E8</v>
+      </c>
+      <c r="D326" s="54" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B327" s="20">
         <v>1.0</v>
       </c>
       <c r="C327" s="20">
-        <v>5.46853793E8</v>
-      </c>
-      <c r="D327" s="53" t="s">
-        <v>362</v>
+        <v>5.35322774E8</v>
+      </c>
+      <c r="D327" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B328" s="20">
         <v>1.0</v>
       </c>
       <c r="C328" s="20">
-        <v>5.86870807E8</v>
-      </c>
-      <c r="D328" s="53" t="s">
-        <v>362</v>
+        <v>5.27044823E8</v>
+      </c>
+      <c r="D328" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B329" s="20">
         <v>1.0</v>
       </c>
       <c r="C329" s="20">
-        <v>5.42444578E8</v>
-      </c>
-      <c r="D329" s="53" t="s">
-        <v>362</v>
+        <v>5.26547679E8</v>
+      </c>
+      <c r="D329" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="54" t="s">
-        <v>371</v>
+      <c r="A330" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="B330" s="20">
         <v>1.0</v>
       </c>
       <c r="C330" s="20">
-        <v>5.09219874E8</v>
-      </c>
-      <c r="D330" s="53" t="s">
-        <v>362</v>
+        <v>5.03042291E8</v>
+      </c>
+      <c r="D330" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B331" s="20">
         <v>1.0</v>
       </c>
       <c r="C331" s="20">
-        <v>5.0243865E8</v>
-      </c>
-      <c r="D331" s="53" t="s">
-        <v>362</v>
+        <v>5.08259208E8</v>
+      </c>
+      <c r="D331" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B332" s="20">
         <v>1.0</v>
       </c>
       <c r="C332" s="20">
-        <v>5.22222069E8</v>
-      </c>
-      <c r="D332" s="53" t="s">
-        <v>362</v>
+        <v>5.46853793E8</v>
+      </c>
+      <c r="D332" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B333" s="20">
         <v>1.0</v>
       </c>
       <c r="C333" s="20">
-        <v>5.25427572E8</v>
-      </c>
-      <c r="D333" s="53" t="s">
-        <v>362</v>
+        <v>5.86870807E8</v>
+      </c>
+      <c r="D333" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B334" s="20">
         <v>1.0</v>
       </c>
       <c r="C334" s="20">
-        <v>5.05889486E8</v>
-      </c>
-      <c r="D334" s="53" t="s">
-        <v>362</v>
+        <v>5.42444578E8</v>
+      </c>
+      <c r="D334" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="23" t="s">
-        <v>376</v>
+      <c r="A335" s="55" t="s">
+        <v>377</v>
       </c>
       <c r="B335" s="20">
         <v>1.0</v>
       </c>
       <c r="C335" s="20">
-        <v>5.0537035E8</v>
-      </c>
-      <c r="D335" s="53" t="s">
-        <v>362</v>
+        <v>5.09219874E8</v>
+      </c>
+      <c r="D335" s="54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B336" s="20">
         <v>1.0</v>
       </c>
       <c r="C336" s="20">
+        <v>5.0243865E8</v>
+      </c>
+      <c r="D336" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B337" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C337" s="20">
+        <v>5.22222069E8</v>
+      </c>
+      <c r="D337" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B338" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C338" s="20">
+        <v>5.25427572E8</v>
+      </c>
+      <c r="D338" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B339" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C339" s="20">
+        <v>5.05889486E8</v>
+      </c>
+      <c r="D339" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B340" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C340" s="20">
+        <v>5.0537035E8</v>
+      </c>
+      <c r="D340" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B341" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C341" s="20">
         <v>5.34227008E8</v>
       </c>
-      <c r="D336" s="53" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="B337" s="55">
-        <f>SUM(B2:B336)</f>
-        <v>406</v>
-      </c>
-      <c r="D337" s="56"/>
-    </row>
-    <row r="338">
-      <c r="D338" s="56"/>
-    </row>
-    <row r="339">
-      <c r="D339" s="56"/>
-    </row>
-    <row r="340">
-      <c r="D340" s="56"/>
-    </row>
-    <row r="341">
-      <c r="D341" s="56"/>
+      <c r="D341" s="54" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="342">
-      <c r="D342" s="56"/>
+      <c r="B342" s="56">
+        <f>SUM(B2:B341)</f>
+        <v>411</v>
+      </c>
+      <c r="D342" s="57"/>
     </row>
     <row r="343">
-      <c r="D343" s="56"/>
+      <c r="D343" s="57"/>
     </row>
     <row r="344">
-      <c r="D344" s="56"/>
+      <c r="D344" s="57"/>
     </row>
     <row r="345">
-      <c r="D345" s="56"/>
+      <c r="D345" s="57"/>
     </row>
     <row r="346">
-      <c r="D346" s="56"/>
+      <c r="D346" s="57"/>
     </row>
     <row r="347">
-      <c r="D347" s="56"/>
+      <c r="D347" s="57"/>
     </row>
     <row r="348">
-      <c r="D348" s="56"/>
+      <c r="D348" s="57"/>
     </row>
     <row r="349">
-      <c r="D349" s="56"/>
+      <c r="D349" s="57"/>
     </row>
     <row r="350">
-      <c r="D350" s="56"/>
+      <c r="D350" s="57"/>
     </row>
     <row r="351">
-      <c r="D351" s="56"/>
+      <c r="D351" s="57"/>
     </row>
     <row r="352">
-      <c r="D352" s="56"/>
+      <c r="D352" s="57"/>
     </row>
     <row r="353">
-      <c r="D353" s="56"/>
+      <c r="D353" s="57"/>
     </row>
     <row r="354">
-      <c r="D354" s="56"/>
+      <c r="D354" s="57"/>
     </row>
     <row r="355">
-      <c r="D355" s="56"/>
+      <c r="D355" s="57"/>
     </row>
     <row r="356">
-      <c r="D356" s="56"/>
+      <c r="D356" s="57"/>
     </row>
     <row r="357">
-      <c r="D357" s="56"/>
+      <c r="D357" s="57"/>
     </row>
     <row r="358">
-      <c r="D358" s="56"/>
+      <c r="D358" s="57"/>
     </row>
     <row r="359">
-      <c r="D359" s="56"/>
+      <c r="D359" s="57"/>
     </row>
     <row r="360">
-      <c r="D360" s="56"/>
+      <c r="D360" s="57"/>
     </row>
     <row r="361">
-      <c r="D361" s="56"/>
+      <c r="D361" s="57"/>
     </row>
     <row r="362">
-      <c r="D362" s="56"/>
+      <c r="D362" s="57"/>
     </row>
     <row r="363">
-      <c r="D363" s="56"/>
+      <c r="D363" s="57"/>
     </row>
     <row r="364">
-      <c r="D364" s="56"/>
+      <c r="D364" s="57"/>
     </row>
     <row r="365">
-      <c r="D365" s="56"/>
+      <c r="D365" s="57"/>
     </row>
     <row r="366">
-      <c r="D366" s="56"/>
+      <c r="D366" s="57"/>
     </row>
     <row r="367">
-      <c r="D367" s="56"/>
+      <c r="D367" s="57"/>
     </row>
     <row r="368">
-      <c r="D368" s="56"/>
+      <c r="D368" s="57"/>
     </row>
     <row r="369">
-      <c r="D369" s="56"/>
+      <c r="D369" s="57"/>
     </row>
     <row r="370">
-      <c r="D370" s="56"/>
+      <c r="D370" s="57"/>
     </row>
     <row r="371">
-      <c r="D371" s="56"/>
+      <c r="D371" s="57"/>
     </row>
     <row r="372">
-      <c r="D372" s="56"/>
+      <c r="D372" s="57"/>
     </row>
     <row r="373">
-      <c r="D373" s="56"/>
+      <c r="D373" s="57"/>
     </row>
     <row r="374">
-      <c r="D374" s="56"/>
+      <c r="D374" s="57"/>
     </row>
     <row r="375">
-      <c r="D375" s="56"/>
+      <c r="D375" s="57"/>
     </row>
     <row r="376">
-      <c r="D376" s="56"/>
+      <c r="D376" s="57"/>
     </row>
     <row r="377">
-      <c r="D377" s="56"/>
+      <c r="D377" s="57"/>
     </row>
     <row r="378">
-      <c r="D378" s="56"/>
+      <c r="D378" s="57"/>
     </row>
     <row r="379">
-      <c r="D379" s="56"/>
+      <c r="D379" s="57"/>
     </row>
     <row r="380">
-      <c r="D380" s="56"/>
+      <c r="D380" s="57"/>
     </row>
     <row r="381">
-      <c r="D381" s="56"/>
+      <c r="D381" s="57"/>
     </row>
     <row r="382">
-      <c r="D382" s="56"/>
+      <c r="D382" s="57"/>
     </row>
     <row r="383">
-      <c r="D383" s="56"/>
+      <c r="D383" s="57"/>
     </row>
     <row r="384">
-      <c r="D384" s="56"/>
+      <c r="D384" s="57"/>
     </row>
     <row r="385">
-      <c r="D385" s="56"/>
+      <c r="D385" s="57"/>
     </row>
     <row r="386">
-      <c r="D386" s="56"/>
+      <c r="D386" s="57"/>
     </row>
     <row r="387">
-      <c r="D387" s="56"/>
+      <c r="D387" s="57"/>
     </row>
     <row r="388">
-      <c r="D388" s="56"/>
+      <c r="D388" s="57"/>
     </row>
     <row r="389">
-      <c r="D389" s="56"/>
+      <c r="D389" s="57"/>
     </row>
     <row r="390">
-      <c r="D390" s="56"/>
+      <c r="D390" s="57"/>
     </row>
     <row r="391">
-      <c r="D391" s="56"/>
+      <c r="D391" s="57"/>
     </row>
     <row r="392">
-      <c r="D392" s="56"/>
+      <c r="D392" s="57"/>
     </row>
     <row r="393">
-      <c r="D393" s="56"/>
+      <c r="D393" s="57"/>
     </row>
     <row r="394">
-      <c r="D394" s="56"/>
+      <c r="D394" s="57"/>
     </row>
     <row r="395">
-      <c r="D395" s="56"/>
+      <c r="D395" s="57"/>
     </row>
     <row r="396">
-      <c r="D396" s="56"/>
+      <c r="D396" s="57"/>
     </row>
     <row r="397">
-      <c r="D397" s="56"/>
+      <c r="D397" s="57"/>
     </row>
     <row r="398">
-      <c r="D398" s="56"/>
+      <c r="D398" s="57"/>
     </row>
     <row r="399">
-      <c r="D399" s="56"/>
+      <c r="D399" s="57"/>
     </row>
     <row r="400">
-      <c r="D400" s="56"/>
+      <c r="D400" s="57"/>
     </row>
     <row r="401">
-      <c r="D401" s="56"/>
+      <c r="D401" s="57"/>
     </row>
     <row r="402">
-      <c r="D402" s="56"/>
+      <c r="D402" s="57"/>
     </row>
     <row r="403">
-      <c r="D403" s="56"/>
+      <c r="D403" s="57"/>
     </row>
     <row r="404">
-      <c r="D404" s="56"/>
+      <c r="D404" s="57"/>
     </row>
     <row r="405">
-      <c r="D405" s="56"/>
+      <c r="D405" s="57"/>
     </row>
     <row r="406">
-      <c r="D406" s="56"/>
+      <c r="D406" s="57"/>
     </row>
     <row r="407">
-      <c r="D407" s="56"/>
+      <c r="D407" s="57"/>
     </row>
     <row r="408">
-      <c r="D408" s="56"/>
+      <c r="D408" s="57"/>
     </row>
     <row r="409">
-      <c r="D409" s="56"/>
+      <c r="D409" s="57"/>
     </row>
     <row r="410">
-      <c r="D410" s="56"/>
+      <c r="D410" s="57"/>
     </row>
     <row r="411">
-      <c r="D411" s="56"/>
+      <c r="D411" s="57"/>
     </row>
     <row r="412">
-      <c r="D412" s="56"/>
+      <c r="D412" s="57"/>
     </row>
     <row r="413">
-      <c r="D413" s="56"/>
+      <c r="D413" s="57"/>
     </row>
     <row r="414">
-      <c r="D414" s="56"/>
+      <c r="D414" s="57"/>
     </row>
     <row r="415">
-      <c r="D415" s="56"/>
+      <c r="D415" s="57"/>
     </row>
     <row r="416">
-      <c r="D416" s="56"/>
+      <c r="D416" s="57"/>
     </row>
     <row r="417">
-      <c r="D417" s="56"/>
+      <c r="D417" s="57"/>
     </row>
     <row r="418">
-      <c r="D418" s="56"/>
+      <c r="D418" s="57"/>
     </row>
     <row r="419">
-      <c r="D419" s="56"/>
+      <c r="D419" s="57"/>
     </row>
     <row r="420">
-      <c r="D420" s="56"/>
+      <c r="D420" s="57"/>
     </row>
     <row r="421">
-      <c r="D421" s="56"/>
+      <c r="D421" s="57"/>
     </row>
     <row r="422">
-      <c r="D422" s="56"/>
+      <c r="D422" s="57"/>
     </row>
     <row r="423">
-      <c r="D423" s="56"/>
+      <c r="D423" s="57"/>
     </row>
     <row r="424">
-      <c r="D424" s="56"/>
+      <c r="D424" s="57"/>
     </row>
     <row r="425">
-      <c r="D425" s="56"/>
+      <c r="D425" s="57"/>
     </row>
     <row r="426">
-      <c r="D426" s="56"/>
+      <c r="D426" s="57"/>
     </row>
     <row r="427">
-      <c r="D427" s="56"/>
+      <c r="D427" s="57"/>
     </row>
     <row r="428">
-      <c r="D428" s="56"/>
+      <c r="D428" s="57"/>
     </row>
     <row r="429">
-      <c r="D429" s="56"/>
+      <c r="D429" s="57"/>
     </row>
     <row r="430">
-      <c r="D430" s="56"/>
+      <c r="D430" s="57"/>
     </row>
     <row r="431">
-      <c r="D431" s="56"/>
+      <c r="D431" s="57"/>
     </row>
     <row r="432">
-      <c r="D432" s="56"/>
+      <c r="D432" s="57"/>
     </row>
     <row r="433">
-      <c r="D433" s="56"/>
+      <c r="D433" s="57"/>
     </row>
     <row r="434">
-      <c r="D434" s="56"/>
+      <c r="D434" s="57"/>
     </row>
     <row r="435">
-      <c r="D435" s="56"/>
+      <c r="D435" s="57"/>
     </row>
     <row r="436">
-      <c r="D436" s="56"/>
+      <c r="D436" s="57"/>
     </row>
     <row r="437">
-      <c r="D437" s="56"/>
+      <c r="D437" s="57"/>
     </row>
     <row r="438">
-      <c r="D438" s="56"/>
+      <c r="D438" s="57"/>
     </row>
     <row r="439">
-      <c r="D439" s="56"/>
+      <c r="D439" s="57"/>
     </row>
     <row r="440">
-      <c r="D440" s="56"/>
+      <c r="D440" s="57"/>
     </row>
     <row r="441">
-      <c r="D441" s="56"/>
+      <c r="D441" s="57"/>
     </row>
     <row r="442">
-      <c r="D442" s="56"/>
+      <c r="D442" s="57"/>
     </row>
     <row r="443">
-      <c r="D443" s="56"/>
+      <c r="D443" s="57"/>
     </row>
     <row r="444">
-      <c r="D444" s="56"/>
+      <c r="D444" s="57"/>
     </row>
     <row r="445">
-      <c r="D445" s="56"/>
+      <c r="D445" s="57"/>
     </row>
     <row r="446">
-      <c r="D446" s="56"/>
+      <c r="D446" s="57"/>
     </row>
     <row r="447">
-      <c r="D447" s="56"/>
+      <c r="D447" s="57"/>
     </row>
     <row r="448">
-      <c r="D448" s="56"/>
+      <c r="D448" s="57"/>
     </row>
     <row r="449">
-      <c r="D449" s="56"/>
+      <c r="D449" s="57"/>
     </row>
     <row r="450">
-      <c r="D450" s="56"/>
+      <c r="D450" s="57"/>
     </row>
     <row r="451">
-      <c r="D451" s="56"/>
+      <c r="D451" s="57"/>
     </row>
     <row r="452">
-      <c r="D452" s="56"/>
+      <c r="D452" s="57"/>
     </row>
     <row r="453">
-      <c r="D453" s="56"/>
+      <c r="D453" s="57"/>
     </row>
     <row r="454">
-      <c r="D454" s="56"/>
+      <c r="D454" s="57"/>
     </row>
     <row r="455">
-      <c r="D455" s="56"/>
+      <c r="D455" s="57"/>
     </row>
     <row r="456">
-      <c r="D456" s="56"/>
+      <c r="D456" s="57"/>
     </row>
     <row r="457">
-      <c r="D457" s="56"/>
+      <c r="D457" s="57"/>
     </row>
     <row r="458">
-      <c r="D458" s="56"/>
+      <c r="D458" s="57"/>
     </row>
     <row r="459">
-      <c r="D459" s="56"/>
+      <c r="D459" s="57"/>
     </row>
     <row r="460">
-      <c r="D460" s="56"/>
+      <c r="D460" s="57"/>
     </row>
     <row r="461">
-      <c r="D461" s="56"/>
+      <c r="D461" s="57"/>
     </row>
     <row r="462">
-      <c r="D462" s="56"/>
+      <c r="D462" s="57"/>
     </row>
     <row r="463">
-      <c r="D463" s="56"/>
+      <c r="D463" s="57"/>
     </row>
     <row r="464">
-      <c r="D464" s="56"/>
+      <c r="D464" s="57"/>
     </row>
     <row r="465">
-      <c r="D465" s="56"/>
+      <c r="D465" s="57"/>
     </row>
     <row r="466">
-      <c r="D466" s="56"/>
+      <c r="D466" s="57"/>
     </row>
     <row r="467">
-      <c r="D467" s="56"/>
+      <c r="D467" s="57"/>
     </row>
     <row r="468">
-      <c r="D468" s="56"/>
+      <c r="D468" s="57"/>
     </row>
     <row r="469">
-      <c r="D469" s="56"/>
+      <c r="D469" s="57"/>
     </row>
     <row r="470">
-      <c r="D470" s="56"/>
+      <c r="D470" s="57"/>
     </row>
     <row r="471">
-      <c r="D471" s="56"/>
+      <c r="D471" s="57"/>
     </row>
     <row r="472">
-      <c r="D472" s="56"/>
+      <c r="D472" s="57"/>
     </row>
     <row r="473">
-      <c r="D473" s="56"/>
+      <c r="D473" s="57"/>
     </row>
     <row r="474">
-      <c r="D474" s="56"/>
+      <c r="D474" s="57"/>
     </row>
     <row r="475">
-      <c r="D475" s="56"/>
+      <c r="D475" s="57"/>
     </row>
     <row r="476">
-      <c r="D476" s="56"/>
+      <c r="D476" s="57"/>
     </row>
     <row r="477">
-      <c r="D477" s="56"/>
+      <c r="D477" s="57"/>
     </row>
     <row r="478">
-      <c r="D478" s="56"/>
+      <c r="D478" s="57"/>
     </row>
     <row r="479">
-      <c r="D479" s="56"/>
+      <c r="D479" s="57"/>
     </row>
     <row r="480">
-      <c r="D480" s="56"/>
+      <c r="D480" s="57"/>
     </row>
     <row r="481">
-      <c r="D481" s="56"/>
+      <c r="D481" s="57"/>
     </row>
     <row r="482">
-      <c r="D482" s="56"/>
+      <c r="D482" s="57"/>
     </row>
     <row r="483">
-      <c r="D483" s="56"/>
+      <c r="D483" s="57"/>
     </row>
     <row r="484">
-      <c r="D484" s="56"/>
+      <c r="D484" s="57"/>
     </row>
     <row r="485">
-      <c r="D485" s="56"/>
+      <c r="D485" s="57"/>
     </row>
     <row r="486">
-      <c r="D486" s="56"/>
+      <c r="D486" s="57"/>
     </row>
     <row r="487">
-      <c r="D487" s="56"/>
+      <c r="D487" s="57"/>
     </row>
     <row r="488">
-      <c r="D488" s="56"/>
+      <c r="D488" s="57"/>
     </row>
     <row r="489">
-      <c r="D489" s="56"/>
+      <c r="D489" s="57"/>
     </row>
     <row r="490">
-      <c r="D490" s="56"/>
+      <c r="D490" s="57"/>
     </row>
     <row r="491">
-      <c r="D491" s="56"/>
+      <c r="D491" s="57"/>
     </row>
     <row r="492">
-      <c r="D492" s="56"/>
+      <c r="D492" s="57"/>
     </row>
     <row r="493">
-      <c r="D493" s="56"/>
+      <c r="D493" s="57"/>
     </row>
     <row r="494">
-      <c r="D494" s="56"/>
+      <c r="D494" s="57"/>
     </row>
     <row r="495">
-      <c r="D495" s="56"/>
+      <c r="D495" s="57"/>
     </row>
     <row r="496">
-      <c r="D496" s="56"/>
+      <c r="D496" s="57"/>
     </row>
     <row r="497">
-      <c r="D497" s="56"/>
+      <c r="D497" s="57"/>
     </row>
     <row r="498">
-      <c r="D498" s="56"/>
+      <c r="D498" s="57"/>
     </row>
     <row r="499">
-      <c r="D499" s="56"/>
+      <c r="D499" s="57"/>
     </row>
     <row r="500">
-      <c r="D500" s="56"/>
+      <c r="D500" s="57"/>
     </row>
     <row r="501">
-      <c r="D501" s="56"/>
+      <c r="D501" s="57"/>
     </row>
     <row r="502">
-      <c r="D502" s="56"/>
+      <c r="D502" s="57"/>
     </row>
     <row r="503">
-      <c r="D503" s="56"/>
+      <c r="D503" s="57"/>
     </row>
     <row r="504">
-      <c r="D504" s="56"/>
+      <c r="D504" s="57"/>
     </row>
     <row r="505">
-      <c r="D505" s="56"/>
+      <c r="D505" s="57"/>
     </row>
     <row r="506">
-      <c r="D506" s="56"/>
+      <c r="D506" s="57"/>
     </row>
     <row r="507">
-      <c r="D507" s="56"/>
+      <c r="D507" s="57"/>
     </row>
     <row r="508">
-      <c r="D508" s="56"/>
+      <c r="D508" s="57"/>
     </row>
     <row r="509">
-      <c r="D509" s="56"/>
+      <c r="D509" s="57"/>
     </row>
     <row r="510">
-      <c r="D510" s="56"/>
+      <c r="D510" s="57"/>
     </row>
     <row r="511">
-      <c r="D511" s="56"/>
+      <c r="D511" s="57"/>
     </row>
     <row r="512">
-      <c r="D512" s="56"/>
+      <c r="D512" s="57"/>
     </row>
     <row r="513">
-      <c r="D513" s="56"/>
+      <c r="D513" s="57"/>
     </row>
     <row r="514">
-      <c r="D514" s="56"/>
+      <c r="D514" s="57"/>
     </row>
     <row r="515">
-      <c r="D515" s="56"/>
+      <c r="D515" s="57"/>
     </row>
     <row r="516">
-      <c r="D516" s="56"/>
+      <c r="D516" s="57"/>
     </row>
     <row r="517">
-      <c r="D517" s="56"/>
+      <c r="D517" s="57"/>
     </row>
     <row r="518">
-      <c r="D518" s="56"/>
+      <c r="D518" s="57"/>
     </row>
     <row r="519">
-      <c r="D519" s="56"/>
+      <c r="D519" s="57"/>
     </row>
     <row r="520">
-      <c r="D520" s="56"/>
+      <c r="D520" s="57"/>
     </row>
     <row r="521">
-      <c r="D521" s="56"/>
+      <c r="D521" s="57"/>
     </row>
     <row r="522">
-      <c r="D522" s="56"/>
+      <c r="D522" s="57"/>
     </row>
     <row r="523">
-      <c r="D523" s="56"/>
+      <c r="D523" s="57"/>
     </row>
     <row r="524">
-      <c r="D524" s="56"/>
+      <c r="D524" s="57"/>
     </row>
     <row r="525">
-      <c r="D525" s="56"/>
+      <c r="D525" s="57"/>
     </row>
     <row r="526">
-      <c r="D526" s="56"/>
+      <c r="D526" s="57"/>
     </row>
     <row r="527">
-      <c r="D527" s="56"/>
+      <c r="D527" s="57"/>
     </row>
     <row r="528">
-      <c r="D528" s="56"/>
+      <c r="D528" s="57"/>
     </row>
     <row r="529">
-      <c r="D529" s="56"/>
+      <c r="D529" s="57"/>
     </row>
     <row r="530">
-      <c r="D530" s="56"/>
+      <c r="D530" s="57"/>
     </row>
     <row r="531">
-      <c r="D531" s="56"/>
+      <c r="D531" s="57"/>
     </row>
     <row r="532">
-      <c r="D532" s="56"/>
+      <c r="D532" s="57"/>
     </row>
     <row r="533">
-      <c r="D533" s="56"/>
+      <c r="D533" s="57"/>
     </row>
     <row r="534">
-      <c r="D534" s="56"/>
+      <c r="D534" s="57"/>
     </row>
     <row r="535">
-      <c r="D535" s="56"/>
+      <c r="D535" s="57"/>
     </row>
     <row r="536">
-      <c r="D536" s="56"/>
+      <c r="D536" s="57"/>
     </row>
     <row r="537">
-      <c r="D537" s="56"/>
+      <c r="D537" s="57"/>
     </row>
     <row r="538">
-      <c r="D538" s="56"/>
+      <c r="D538" s="57"/>
     </row>
     <row r="539">
-      <c r="D539" s="56"/>
+      <c r="D539" s="57"/>
     </row>
     <row r="540">
-      <c r="D540" s="56"/>
+      <c r="D540" s="57"/>
     </row>
     <row r="541">
-      <c r="D541" s="56"/>
+      <c r="D541" s="57"/>
     </row>
     <row r="542">
-      <c r="D542" s="56"/>
+      <c r="D542" s="57"/>
     </row>
     <row r="543">
-      <c r="D543" s="56"/>
+      <c r="D543" s="57"/>
     </row>
     <row r="544">
-      <c r="D544" s="56"/>
+      <c r="D544" s="57"/>
     </row>
     <row r="545">
-      <c r="D545" s="56"/>
+      <c r="D545" s="57"/>
     </row>
     <row r="546">
-      <c r="D546" s="56"/>
+      <c r="D546" s="57"/>
     </row>
     <row r="547">
-      <c r="D547" s="56"/>
+      <c r="D547" s="57"/>
     </row>
     <row r="548">
-      <c r="D548" s="56"/>
+      <c r="D548" s="57"/>
     </row>
     <row r="549">
-      <c r="D549" s="56"/>
+      <c r="D549" s="57"/>
     </row>
     <row r="550">
-      <c r="D550" s="56"/>
+      <c r="D550" s="57"/>
     </row>
     <row r="551">
-      <c r="D551" s="56"/>
+      <c r="D551" s="57"/>
     </row>
     <row r="552">
-      <c r="D552" s="56"/>
+      <c r="D552" s="57"/>
     </row>
     <row r="553">
-      <c r="D553" s="56"/>
+      <c r="D553" s="57"/>
     </row>
     <row r="554">
-      <c r="D554" s="56"/>
+      <c r="D554" s="57"/>
     </row>
     <row r="555">
-      <c r="D555" s="56"/>
+      <c r="D555" s="57"/>
     </row>
     <row r="556">
-      <c r="D556" s="56"/>
+      <c r="D556" s="57"/>
     </row>
     <row r="557">
-      <c r="D557" s="56"/>
+      <c r="D557" s="57"/>
     </row>
     <row r="558">
-      <c r="D558" s="56"/>
+      <c r="D558" s="57"/>
     </row>
     <row r="559">
-      <c r="D559" s="56"/>
+      <c r="D559" s="57"/>
     </row>
     <row r="560">
-      <c r="D560" s="56"/>
+      <c r="D560" s="57"/>
     </row>
     <row r="561">
-      <c r="D561" s="56"/>
+      <c r="D561" s="57"/>
     </row>
     <row r="562">
-      <c r="D562" s="56"/>
+      <c r="D562" s="57"/>
     </row>
     <row r="563">
-      <c r="D563" s="56"/>
+      <c r="D563" s="57"/>
     </row>
     <row r="564">
-      <c r="D564" s="56"/>
+      <c r="D564" s="57"/>
     </row>
     <row r="565">
-      <c r="D565" s="56"/>
+      <c r="D565" s="57"/>
     </row>
     <row r="566">
-      <c r="D566" s="56"/>
+      <c r="D566" s="57"/>
     </row>
     <row r="567">
-      <c r="D567" s="56"/>
+      <c r="D567" s="57"/>
     </row>
     <row r="568">
-      <c r="D568" s="56"/>
+      <c r="D568" s="57"/>
     </row>
     <row r="569">
-      <c r="D569" s="56"/>
+      <c r="D569" s="57"/>
     </row>
     <row r="570">
-      <c r="D570" s="56"/>
+      <c r="D570" s="57"/>
     </row>
     <row r="571">
-      <c r="D571" s="56"/>
+      <c r="D571" s="57"/>
     </row>
     <row r="572">
-      <c r="D572" s="56"/>
+      <c r="D572" s="57"/>
     </row>
     <row r="573">
-      <c r="D573" s="56"/>
+      <c r="D573" s="57"/>
     </row>
     <row r="574">
-      <c r="D574" s="56"/>
+      <c r="D574" s="57"/>
     </row>
     <row r="575">
-      <c r="D575" s="56"/>
+      <c r="D575" s="57"/>
     </row>
     <row r="576">
-      <c r="D576" s="56"/>
+      <c r="D576" s="57"/>
     </row>
     <row r="577">
-      <c r="D577" s="56"/>
+      <c r="D577" s="57"/>
     </row>
     <row r="578">
-      <c r="D578" s="56"/>
+      <c r="D578" s="57"/>
     </row>
     <row r="579">
-      <c r="D579" s="56"/>
+      <c r="D579" s="57"/>
     </row>
     <row r="580">
-      <c r="D580" s="56"/>
+      <c r="D580" s="57"/>
     </row>
     <row r="581">
-      <c r="D581" s="56"/>
+      <c r="D581" s="57"/>
     </row>
     <row r="582">
-      <c r="D582" s="56"/>
+      <c r="D582" s="57"/>
     </row>
     <row r="583">
-      <c r="D583" s="56"/>
+      <c r="D583" s="57"/>
     </row>
     <row r="584">
-      <c r="D584" s="56"/>
+      <c r="D584" s="57"/>
     </row>
     <row r="585">
-      <c r="D585" s="56"/>
+      <c r="D585" s="57"/>
     </row>
     <row r="586">
-      <c r="D586" s="56"/>
+      <c r="D586" s="57"/>
     </row>
     <row r="587">
-      <c r="D587" s="56"/>
+      <c r="D587" s="57"/>
     </row>
     <row r="588">
-      <c r="D588" s="56"/>
+      <c r="D588" s="57"/>
     </row>
     <row r="589">
-      <c r="D589" s="56"/>
+      <c r="D589" s="57"/>
     </row>
     <row r="590">
-      <c r="D590" s="56"/>
+      <c r="D590" s="57"/>
     </row>
     <row r="591">
-      <c r="D591" s="56"/>
+      <c r="D591" s="57"/>
     </row>
     <row r="592">
-      <c r="D592" s="56"/>
+      <c r="D592" s="57"/>
     </row>
     <row r="593">
-      <c r="D593" s="56"/>
+      <c r="D593" s="57"/>
     </row>
     <row r="594">
-      <c r="D594" s="56"/>
+      <c r="D594" s="57"/>
     </row>
     <row r="595">
-      <c r="D595" s="56"/>
+      <c r="D595" s="57"/>
     </row>
     <row r="596">
-      <c r="D596" s="56"/>
+      <c r="D596" s="57"/>
     </row>
     <row r="597">
-      <c r="D597" s="56"/>
+      <c r="D597" s="57"/>
     </row>
     <row r="598">
-      <c r="D598" s="56"/>
+      <c r="D598" s="57"/>
     </row>
     <row r="599">
-      <c r="D599" s="56"/>
+      <c r="D599" s="57"/>
     </row>
     <row r="600">
-      <c r="D600" s="56"/>
+      <c r="D600" s="57"/>
     </row>
     <row r="601">
-      <c r="D601" s="56"/>
+      <c r="D601" s="57"/>
     </row>
     <row r="602">
-      <c r="D602" s="56"/>
+      <c r="D602" s="57"/>
     </row>
     <row r="603">
-      <c r="D603" s="56"/>
+      <c r="D603" s="57"/>
     </row>
     <row r="604">
-      <c r="D604" s="56"/>
+      <c r="D604" s="57"/>
     </row>
     <row r="605">
-      <c r="D605" s="56"/>
+      <c r="D605" s="57"/>
     </row>
     <row r="606">
-      <c r="D606" s="56"/>
+      <c r="D606" s="57"/>
     </row>
     <row r="607">
-      <c r="D607" s="56"/>
+      <c r="D607" s="57"/>
     </row>
     <row r="608">
-      <c r="D608" s="56"/>
+      <c r="D608" s="57"/>
     </row>
     <row r="609">
-      <c r="D609" s="56"/>
+      <c r="D609" s="57"/>
     </row>
     <row r="610">
-      <c r="D610" s="56"/>
+      <c r="D610" s="57"/>
     </row>
     <row r="611">
-      <c r="D611" s="56"/>
+      <c r="D611" s="57"/>
     </row>
     <row r="612">
-      <c r="D612" s="56"/>
+      <c r="D612" s="57"/>
     </row>
     <row r="613">
-      <c r="D613" s="56"/>
+      <c r="D613" s="57"/>
     </row>
     <row r="614">
-      <c r="D614" s="56"/>
+      <c r="D614" s="57"/>
     </row>
     <row r="615">
-      <c r="D615" s="56"/>
+      <c r="D615" s="57"/>
     </row>
     <row r="616">
-      <c r="D616" s="56"/>
+      <c r="D616" s="57"/>
     </row>
     <row r="617">
-      <c r="D617" s="56"/>
+      <c r="D617" s="57"/>
     </row>
     <row r="618">
-      <c r="D618" s="56"/>
+      <c r="D618" s="57"/>
     </row>
     <row r="619">
-      <c r="D619" s="56"/>
+      <c r="D619" s="57"/>
     </row>
     <row r="620">
-      <c r="D620" s="56"/>
+      <c r="D620" s="57"/>
     </row>
     <row r="621">
-      <c r="D621" s="56"/>
+      <c r="D621" s="57"/>
     </row>
     <row r="622">
-      <c r="D622" s="56"/>
+      <c r="D622" s="57"/>
     </row>
     <row r="623">
-      <c r="D623" s="56"/>
+      <c r="D623" s="57"/>
     </row>
     <row r="624">
-      <c r="D624" s="56"/>
+      <c r="D624" s="57"/>
     </row>
     <row r="625">
-      <c r="D625" s="56"/>
+      <c r="D625" s="57"/>
     </row>
     <row r="626">
-      <c r="D626" s="56"/>
+      <c r="D626" s="57"/>
     </row>
     <row r="627">
-      <c r="D627" s="56"/>
+      <c r="D627" s="57"/>
     </row>
     <row r="628">
-      <c r="D628" s="56"/>
+      <c r="D628" s="57"/>
     </row>
     <row r="629">
-      <c r="D629" s="56"/>
+      <c r="D629" s="57"/>
     </row>
     <row r="630">
-      <c r="D630" s="56"/>
+      <c r="D630" s="57"/>
     </row>
     <row r="631">
-      <c r="D631" s="56"/>
+      <c r="D631" s="57"/>
     </row>
     <row r="632">
-      <c r="D632" s="56"/>
+      <c r="D632" s="57"/>
     </row>
     <row r="633">
-      <c r="D633" s="56"/>
+      <c r="D633" s="57"/>
     </row>
     <row r="634">
-      <c r="D634" s="56"/>
+      <c r="D634" s="57"/>
     </row>
     <row r="635">
-      <c r="D635" s="56"/>
+      <c r="D635" s="57"/>
     </row>
     <row r="636">
-      <c r="D636" s="56"/>
+      <c r="D636" s="57"/>
     </row>
     <row r="637">
-      <c r="D637" s="56"/>
+      <c r="D637" s="57"/>
     </row>
     <row r="638">
-      <c r="D638" s="56"/>
+      <c r="D638" s="57"/>
     </row>
     <row r="639">
-      <c r="D639" s="56"/>
+      <c r="D639" s="57"/>
     </row>
     <row r="640">
-      <c r="D640" s="56"/>
+      <c r="D640" s="57"/>
     </row>
     <row r="641">
-      <c r="D641" s="56"/>
+      <c r="D641" s="57"/>
     </row>
     <row r="642">
-      <c r="D642" s="56"/>
+      <c r="D642" s="57"/>
     </row>
     <row r="643">
-      <c r="D643" s="56"/>
+      <c r="D643" s="57"/>
     </row>
     <row r="644">
-      <c r="D644" s="56"/>
+      <c r="D644" s="57"/>
     </row>
     <row r="645">
-      <c r="D645" s="56"/>
+      <c r="D645" s="57"/>
     </row>
     <row r="646">
-      <c r="D646" s="56"/>
+      <c r="D646" s="57"/>
     </row>
     <row r="647">
-      <c r="D647" s="56"/>
+      <c r="D647" s="57"/>
     </row>
     <row r="648">
-      <c r="D648" s="56"/>
+      <c r="D648" s="57"/>
     </row>
     <row r="649">
-      <c r="D649" s="56"/>
+      <c r="D649" s="57"/>
     </row>
     <row r="650">
-      <c r="D650" s="56"/>
+      <c r="D650" s="57"/>
     </row>
     <row r="651">
-      <c r="D651" s="56"/>
+      <c r="D651" s="57"/>
     </row>
     <row r="652">
-      <c r="D652" s="56"/>
+      <c r="D652" s="57"/>
     </row>
     <row r="653">
-      <c r="D653" s="56"/>
+      <c r="D653" s="57"/>
     </row>
     <row r="654">
-      <c r="D654" s="56"/>
+      <c r="D654" s="57"/>
     </row>
     <row r="655">
-      <c r="D655" s="56"/>
+      <c r="D655" s="57"/>
     </row>
     <row r="656">
-      <c r="D656" s="56"/>
+      <c r="D656" s="57"/>
     </row>
     <row r="657">
-      <c r="D657" s="56"/>
+      <c r="D657" s="57"/>
     </row>
     <row r="658">
-      <c r="D658" s="56"/>
+      <c r="D658" s="57"/>
     </row>
     <row r="659">
-      <c r="D659" s="56"/>
+      <c r="D659" s="57"/>
     </row>
     <row r="660">
-      <c r="D660" s="56"/>
+      <c r="D660" s="57"/>
     </row>
     <row r="661">
-      <c r="D661" s="56"/>
+      <c r="D661" s="57"/>
     </row>
     <row r="662">
-      <c r="D662" s="56"/>
+      <c r="D662" s="57"/>
     </row>
     <row r="663">
-      <c r="D663" s="56"/>
+      <c r="D663" s="57"/>
     </row>
     <row r="664">
-      <c r="D664" s="56"/>
+      <c r="D664" s="57"/>
     </row>
     <row r="665">
-      <c r="D665" s="56"/>
+      <c r="D665" s="57"/>
     </row>
     <row r="666">
-      <c r="D666" s="56"/>
+      <c r="D666" s="57"/>
     </row>
     <row r="667">
-      <c r="D667" s="56"/>
+      <c r="D667" s="57"/>
     </row>
     <row r="668">
-      <c r="D668" s="56"/>
+      <c r="D668" s="57"/>
     </row>
     <row r="669">
-      <c r="D669" s="56"/>
+      <c r="D669" s="57"/>
     </row>
     <row r="670">
-      <c r="D670" s="56"/>
+      <c r="D670" s="57"/>
     </row>
     <row r="671">
-      <c r="D671" s="56"/>
+      <c r="D671" s="57"/>
     </row>
     <row r="672">
-      <c r="D672" s="56"/>
+      <c r="D672" s="57"/>
     </row>
     <row r="673">
-      <c r="D673" s="56"/>
+      <c r="D673" s="57"/>
     </row>
     <row r="674">
-      <c r="D674" s="56"/>
+      <c r="D674" s="57"/>
     </row>
     <row r="675">
-      <c r="D675" s="56"/>
+      <c r="D675" s="57"/>
     </row>
     <row r="676">
-      <c r="D676" s="56"/>
+      <c r="D676" s="57"/>
     </row>
     <row r="677">
-      <c r="D677" s="56"/>
+      <c r="D677" s="57"/>
     </row>
     <row r="678">
-      <c r="D678" s="56"/>
+      <c r="D678" s="57"/>
     </row>
     <row r="679">
-      <c r="D679" s="56"/>
+      <c r="D679" s="57"/>
     </row>
     <row r="680">
-      <c r="D680" s="56"/>
+      <c r="D680" s="57"/>
     </row>
     <row r="681">
-      <c r="D681" s="56"/>
+      <c r="D681" s="57"/>
     </row>
     <row r="682">
-      <c r="D682" s="56"/>
+      <c r="D682" s="57"/>
     </row>
     <row r="683">
-      <c r="D683" s="56"/>
+      <c r="D683" s="57"/>
     </row>
     <row r="684">
-      <c r="D684" s="56"/>
+      <c r="D684" s="57"/>
     </row>
     <row r="685">
-      <c r="D685" s="56"/>
+      <c r="D685" s="57"/>
     </row>
     <row r="686">
-      <c r="D686" s="56"/>
+      <c r="D686" s="57"/>
     </row>
     <row r="687">
-      <c r="D687" s="56"/>
+      <c r="D687" s="57"/>
     </row>
     <row r="688">
-      <c r="D688" s="56"/>
+      <c r="D688" s="57"/>
     </row>
     <row r="689">
-      <c r="D689" s="56"/>
+      <c r="D689" s="57"/>
     </row>
     <row r="690">
-      <c r="D690" s="56"/>
+      <c r="D690" s="57"/>
     </row>
     <row r="691">
-      <c r="D691" s="56"/>
+      <c r="D691" s="57"/>
     </row>
     <row r="692">
-      <c r="D692" s="56"/>
+      <c r="D692" s="57"/>
     </row>
     <row r="693">
-      <c r="D693" s="56"/>
+      <c r="D693" s="57"/>
     </row>
     <row r="694">
-      <c r="D694" s="56"/>
+      <c r="D694" s="57"/>
     </row>
     <row r="695">
-      <c r="D695" s="56"/>
+      <c r="D695" s="57"/>
     </row>
     <row r="696">
-      <c r="D696" s="56"/>
+      <c r="D696" s="57"/>
     </row>
     <row r="697">
-      <c r="D697" s="56"/>
+      <c r="D697" s="57"/>
     </row>
     <row r="698">
-      <c r="D698" s="56"/>
+      <c r="D698" s="57"/>
     </row>
     <row r="699">
-      <c r="D699" s="56"/>
+      <c r="D699" s="57"/>
     </row>
     <row r="700">
-      <c r="D700" s="56"/>
+      <c r="D700" s="57"/>
     </row>
     <row r="701">
-      <c r="D701" s="56"/>
+      <c r="D701" s="57"/>
     </row>
     <row r="702">
-      <c r="D702" s="56"/>
+      <c r="D702" s="57"/>
     </row>
     <row r="703">
-      <c r="D703" s="56"/>
+      <c r="D703" s="57"/>
     </row>
     <row r="704">
-      <c r="D704" s="56"/>
+      <c r="D704" s="57"/>
     </row>
     <row r="705">
-      <c r="D705" s="56"/>
+      <c r="D705" s="57"/>
     </row>
     <row r="706">
-      <c r="D706" s="56"/>
+      <c r="D706" s="57"/>
     </row>
     <row r="707">
-      <c r="D707" s="56"/>
+      <c r="D707" s="57"/>
     </row>
     <row r="708">
-      <c r="D708" s="56"/>
+      <c r="D708" s="57"/>
     </row>
     <row r="709">
-      <c r="D709" s="56"/>
+      <c r="D709" s="57"/>
     </row>
     <row r="710">
-      <c r="D710" s="56"/>
+      <c r="D710" s="57"/>
     </row>
     <row r="711">
-      <c r="D711" s="56"/>
+      <c r="D711" s="57"/>
     </row>
     <row r="712">
-      <c r="D712" s="56"/>
+      <c r="D712" s="57"/>
     </row>
     <row r="713">
-      <c r="D713" s="56"/>
+      <c r="D713" s="57"/>
     </row>
     <row r="714">
-      <c r="D714" s="56"/>
+      <c r="D714" s="57"/>
     </row>
     <row r="715">
-      <c r="D715" s="56"/>
+      <c r="D715" s="57"/>
     </row>
     <row r="716">
-      <c r="D716" s="56"/>
+      <c r="D716" s="57"/>
     </row>
     <row r="717">
-      <c r="D717" s="56"/>
+      <c r="D717" s="57"/>
     </row>
     <row r="718">
-      <c r="D718" s="56"/>
+      <c r="D718" s="57"/>
     </row>
     <row r="719">
-      <c r="D719" s="56"/>
+      <c r="D719" s="57"/>
     </row>
     <row r="720">
-      <c r="D720" s="56"/>
+      <c r="D720" s="57"/>
     </row>
     <row r="721">
-      <c r="D721" s="56"/>
+      <c r="D721" s="57"/>
     </row>
     <row r="722">
-      <c r="D722" s="56"/>
+      <c r="D722" s="57"/>
     </row>
     <row r="723">
-      <c r="D723" s="56"/>
+      <c r="D723" s="57"/>
     </row>
     <row r="724">
-      <c r="D724" s="56"/>
+      <c r="D724" s="57"/>
     </row>
     <row r="725">
-      <c r="D725" s="56"/>
+      <c r="D725" s="57"/>
     </row>
     <row r="726">
-      <c r="D726" s="56"/>
+      <c r="D726" s="57"/>
     </row>
     <row r="727">
-      <c r="D727" s="56"/>
+      <c r="D727" s="57"/>
     </row>
     <row r="728">
-      <c r="D728" s="56"/>
+      <c r="D728" s="57"/>
     </row>
     <row r="729">
-      <c r="D729" s="56"/>
+      <c r="D729" s="57"/>
     </row>
     <row r="730">
-      <c r="D730" s="56"/>
+      <c r="D730" s="57"/>
     </row>
     <row r="731">
-      <c r="D731" s="56"/>
+      <c r="D731" s="57"/>
     </row>
     <row r="732">
-      <c r="D732" s="56"/>
+      <c r="D732" s="57"/>
     </row>
     <row r="733">
-      <c r="D733" s="56"/>
+      <c r="D733" s="57"/>
     </row>
     <row r="734">
-      <c r="D734" s="56"/>
+      <c r="D734" s="57"/>
     </row>
     <row r="735">
-      <c r="D735" s="56"/>
+      <c r="D735" s="57"/>
     </row>
     <row r="736">
-      <c r="D736" s="56"/>
+      <c r="D736" s="57"/>
     </row>
     <row r="737">
-      <c r="D737" s="56"/>
+      <c r="D737" s="57"/>
     </row>
     <row r="738">
-      <c r="D738" s="56"/>
+      <c r="D738" s="57"/>
     </row>
     <row r="739">
-      <c r="D739" s="56"/>
+      <c r="D739" s="57"/>
     </row>
     <row r="740">
-      <c r="D740" s="56"/>
+      <c r="D740" s="57"/>
     </row>
     <row r="741">
-      <c r="D741" s="56"/>
+      <c r="D741" s="57"/>
     </row>
     <row r="742">
-      <c r="D742" s="56"/>
+      <c r="D742" s="57"/>
     </row>
     <row r="743">
-      <c r="D743" s="56"/>
+      <c r="D743" s="57"/>
     </row>
     <row r="744">
-      <c r="D744" s="56"/>
+      <c r="D744" s="57"/>
     </row>
     <row r="745">
-      <c r="D745" s="56"/>
+      <c r="D745" s="57"/>
     </row>
     <row r="746">
-      <c r="D746" s="56"/>
+      <c r="D746" s="57"/>
     </row>
     <row r="747">
-      <c r="D747" s="56"/>
+      <c r="D747" s="57"/>
     </row>
     <row r="748">
-      <c r="D748" s="56"/>
+      <c r="D748" s="57"/>
     </row>
     <row r="749">
-      <c r="D749" s="56"/>
+      <c r="D749" s="57"/>
     </row>
     <row r="750">
-      <c r="D750" s="56"/>
+      <c r="D750" s="57"/>
     </row>
     <row r="751">
-      <c r="D751" s="56"/>
+      <c r="D751" s="57"/>
     </row>
     <row r="752">
-      <c r="D752" s="56"/>
+      <c r="D752" s="57"/>
     </row>
     <row r="753">
-      <c r="D753" s="56"/>
+      <c r="D753" s="57"/>
     </row>
     <row r="754">
-      <c r="D754" s="56"/>
+      <c r="D754" s="57"/>
     </row>
     <row r="755">
-      <c r="D755" s="56"/>
+      <c r="D755" s="57"/>
     </row>
     <row r="756">
-      <c r="D756" s="56"/>
+      <c r="D756" s="57"/>
     </row>
     <row r="757">
-      <c r="D757" s="56"/>
+      <c r="D757" s="57"/>
     </row>
     <row r="758">
-      <c r="D758" s="56"/>
+      <c r="D758" s="57"/>
     </row>
     <row r="759">
-      <c r="D759" s="56"/>
+      <c r="D759" s="57"/>
     </row>
     <row r="760">
-      <c r="D760" s="56"/>
+      <c r="D760" s="57"/>
     </row>
     <row r="761">
-      <c r="D761" s="56"/>
+      <c r="D761" s="57"/>
     </row>
     <row r="762">
-      <c r="D762" s="56"/>
+      <c r="D762" s="57"/>
     </row>
     <row r="763">
-      <c r="D763" s="56"/>
+      <c r="D763" s="57"/>
     </row>
     <row r="764">
-      <c r="D764" s="56"/>
+      <c r="D764" s="57"/>
     </row>
     <row r="765">
-      <c r="D765" s="56"/>
+      <c r="D765" s="57"/>
     </row>
     <row r="766">
-      <c r="D766" s="56"/>
+      <c r="D766" s="57"/>
     </row>
     <row r="767">
-      <c r="D767" s="56"/>
+      <c r="D767" s="57"/>
     </row>
     <row r="768">
-      <c r="D768" s="56"/>
+      <c r="D768" s="57"/>
     </row>
     <row r="769">
-      <c r="D769" s="56"/>
+      <c r="D769" s="57"/>
     </row>
     <row r="770">
-      <c r="D770" s="56"/>
+      <c r="D770" s="57"/>
     </row>
     <row r="771">
-      <c r="D771" s="56"/>
+      <c r="D771" s="57"/>
     </row>
     <row r="772">
-      <c r="D772" s="56"/>
+      <c r="D772" s="57"/>
     </row>
     <row r="773">
-      <c r="D773" s="56"/>
+      <c r="D773" s="57"/>
     </row>
     <row r="774">
-      <c r="D774" s="56"/>
+      <c r="D774" s="57"/>
     </row>
     <row r="775">
-      <c r="D775" s="56"/>
+      <c r="D775" s="57"/>
     </row>
     <row r="776">
-      <c r="D776" s="56"/>
+      <c r="D776" s="57"/>
     </row>
     <row r="777">
-      <c r="D777" s="56"/>
+      <c r="D777" s="57"/>
     </row>
     <row r="778">
-      <c r="D778" s="56"/>
+      <c r="D778" s="57"/>
     </row>
     <row r="779">
-      <c r="D779" s="56"/>
+      <c r="D779" s="57"/>
     </row>
     <row r="780">
-      <c r="D780" s="56"/>
+      <c r="D780" s="57"/>
     </row>
     <row r="781">
-      <c r="D781" s="56"/>
+      <c r="D781" s="57"/>
     </row>
     <row r="782">
-      <c r="D782" s="56"/>
+      <c r="D782" s="57"/>
     </row>
     <row r="783">
-      <c r="D783" s="56"/>
+      <c r="D783" s="57"/>
     </row>
     <row r="784">
-      <c r="D784" s="56"/>
+      <c r="D784" s="57"/>
     </row>
     <row r="785">
-      <c r="D785" s="56"/>
+      <c r="D785" s="57"/>
     </row>
     <row r="786">
-      <c r="D786" s="56"/>
+      <c r="D786" s="57"/>
     </row>
     <row r="787">
-      <c r="D787" s="56"/>
+      <c r="D787" s="57"/>
     </row>
     <row r="788">
-      <c r="D788" s="56"/>
+      <c r="D788" s="57"/>
     </row>
     <row r="789">
-      <c r="D789" s="56"/>
+      <c r="D789" s="57"/>
     </row>
     <row r="790">
-      <c r="D790" s="56"/>
+      <c r="D790" s="57"/>
     </row>
     <row r="791">
-      <c r="D791" s="56"/>
+      <c r="D791" s="57"/>
     </row>
     <row r="792">
-      <c r="D792" s="56"/>
+      <c r="D792" s="57"/>
     </row>
     <row r="793">
-      <c r="D793" s="56"/>
+      <c r="D793" s="57"/>
     </row>
     <row r="794">
-      <c r="D794" s="56"/>
+      <c r="D794" s="57"/>
     </row>
     <row r="795">
-      <c r="D795" s="56"/>
+      <c r="D795" s="57"/>
     </row>
     <row r="796">
-      <c r="D796" s="56"/>
+      <c r="D796" s="57"/>
     </row>
     <row r="797">
-      <c r="D797" s="56"/>
+      <c r="D797" s="57"/>
     </row>
     <row r="798">
-      <c r="D798" s="56"/>
+      <c r="D798" s="57"/>
     </row>
     <row r="799">
-      <c r="D799" s="56"/>
+      <c r="D799" s="57"/>
     </row>
     <row r="800">
-      <c r="D800" s="56"/>
+      <c r="D800" s="57"/>
     </row>
     <row r="801">
-      <c r="D801" s="56"/>
+      <c r="D801" s="57"/>
     </row>
     <row r="802">
-      <c r="D802" s="56"/>
+      <c r="D802" s="57"/>
     </row>
     <row r="803">
-      <c r="D803" s="56"/>
+      <c r="D803" s="57"/>
     </row>
     <row r="804">
-      <c r="D804" s="56"/>
+      <c r="D804" s="57"/>
     </row>
     <row r="805">
-      <c r="D805" s="56"/>
+      <c r="D805" s="57"/>
     </row>
     <row r="806">
-      <c r="D806" s="56"/>
+      <c r="D806" s="57"/>
     </row>
     <row r="807">
-      <c r="D807" s="56"/>
+      <c r="D807" s="57"/>
     </row>
     <row r="808">
-      <c r="D808" s="56"/>
+      <c r="D808" s="57"/>
     </row>
     <row r="809">
-      <c r="D809" s="56"/>
+      <c r="D809" s="57"/>
     </row>
     <row r="810">
-      <c r="D810" s="56"/>
+      <c r="D810" s="57"/>
     </row>
     <row r="811">
-      <c r="D811" s="56"/>
+      <c r="D811" s="57"/>
     </row>
     <row r="812">
-      <c r="D812" s="56"/>
+      <c r="D812" s="57"/>
     </row>
     <row r="813">
-      <c r="D813" s="56"/>
+      <c r="D813" s="57"/>
     </row>
     <row r="814">
-      <c r="D814" s="56"/>
+      <c r="D814" s="57"/>
     </row>
     <row r="815">
-      <c r="D815" s="56"/>
+      <c r="D815" s="57"/>
     </row>
     <row r="816">
-      <c r="D816" s="56"/>
+      <c r="D816" s="57"/>
     </row>
     <row r="817">
-      <c r="D817" s="56"/>
+      <c r="D817" s="57"/>
     </row>
     <row r="818">
-      <c r="D818" s="56"/>
+      <c r="D818" s="57"/>
     </row>
     <row r="819">
-      <c r="D819" s="56"/>
+      <c r="D819" s="57"/>
     </row>
     <row r="820">
-      <c r="D820" s="56"/>
+      <c r="D820" s="57"/>
     </row>
     <row r="821">
-      <c r="D821" s="56"/>
+      <c r="D821" s="57"/>
     </row>
     <row r="822">
-      <c r="D822" s="56"/>
+      <c r="D822" s="57"/>
     </row>
     <row r="823">
-      <c r="D823" s="56"/>
+      <c r="D823" s="57"/>
     </row>
     <row r="824">
-      <c r="D824" s="56"/>
+      <c r="D824" s="57"/>
     </row>
     <row r="825">
-      <c r="D825" s="56"/>
+      <c r="D825" s="57"/>
     </row>
     <row r="826">
-      <c r="D826" s="56"/>
+      <c r="D826" s="57"/>
     </row>
     <row r="827">
-      <c r="D827" s="56"/>
+      <c r="D827" s="57"/>
     </row>
     <row r="828">
-      <c r="D828" s="56"/>
+      <c r="D828" s="57"/>
     </row>
     <row r="829">
-      <c r="D829" s="56"/>
+      <c r="D829" s="57"/>
     </row>
     <row r="830">
-      <c r="D830" s="56"/>
+      <c r="D830" s="57"/>
     </row>
     <row r="831">
-      <c r="D831" s="56"/>
+      <c r="D831" s="57"/>
     </row>
     <row r="832">
-      <c r="D832" s="56"/>
+      <c r="D832" s="57"/>
     </row>
     <row r="833">
-      <c r="D833" s="56"/>
+      <c r="D833" s="57"/>
     </row>
     <row r="834">
-      <c r="D834" s="56"/>
+      <c r="D834" s="57"/>
     </row>
     <row r="835">
-      <c r="D835" s="56"/>
+      <c r="D835" s="57"/>
     </row>
     <row r="836">
-      <c r="D836" s="56"/>
+      <c r="D836" s="57"/>
     </row>
     <row r="837">
-      <c r="D837" s="56"/>
+      <c r="D837" s="57"/>
     </row>
     <row r="838">
-      <c r="D838" s="56"/>
+      <c r="D838" s="57"/>
     </row>
     <row r="839">
-      <c r="D839" s="56"/>
+      <c r="D839" s="57"/>
     </row>
     <row r="840">
-      <c r="D840" s="56"/>
+      <c r="D840" s="57"/>
     </row>
     <row r="841">
-      <c r="D841" s="56"/>
+      <c r="D841" s="57"/>
     </row>
     <row r="842">
-      <c r="D842" s="56"/>
+      <c r="D842" s="57"/>
     </row>
     <row r="843">
-      <c r="D843" s="56"/>
+      <c r="D843" s="57"/>
     </row>
     <row r="844">
-      <c r="D844" s="56"/>
+      <c r="D844" s="57"/>
     </row>
     <row r="845">
-      <c r="D845" s="56"/>
+      <c r="D845" s="57"/>
     </row>
     <row r="846">
-      <c r="D846" s="56"/>
+      <c r="D846" s="57"/>
     </row>
     <row r="847">
-      <c r="D847" s="56"/>
+      <c r="D847" s="57"/>
     </row>
     <row r="848">
-      <c r="D848" s="56"/>
+      <c r="D848" s="57"/>
     </row>
     <row r="849">
-      <c r="D849" s="56"/>
+      <c r="D849" s="57"/>
     </row>
     <row r="850">
-      <c r="D850" s="56"/>
+      <c r="D850" s="57"/>
     </row>
     <row r="851">
-      <c r="D851" s="56"/>
+      <c r="D851" s="57"/>
     </row>
     <row r="852">
-      <c r="D852" s="56"/>
+      <c r="D852" s="57"/>
     </row>
     <row r="853">
-      <c r="D853" s="56"/>
+      <c r="D853" s="57"/>
     </row>
     <row r="854">
-      <c r="D854" s="56"/>
+      <c r="D854" s="57"/>
     </row>
     <row r="855">
-      <c r="D855" s="56"/>
+      <c r="D855" s="57"/>
     </row>
     <row r="856">
-      <c r="D856" s="56"/>
+      <c r="D856" s="57"/>
     </row>
     <row r="857">
-      <c r="D857" s="56"/>
+      <c r="D857" s="57"/>
     </row>
     <row r="858">
-      <c r="D858" s="56"/>
+      <c r="D858" s="57"/>
     </row>
     <row r="859">
-      <c r="D859" s="56"/>
+      <c r="D859" s="57"/>
     </row>
     <row r="860">
-      <c r="D860" s="56"/>
+      <c r="D860" s="57"/>
     </row>
     <row r="861">
-      <c r="D861" s="56"/>
+      <c r="D861" s="57"/>
     </row>
     <row r="862">
-      <c r="D862" s="56"/>
+      <c r="D862" s="57"/>
     </row>
     <row r="863">
-      <c r="D863" s="56"/>
+      <c r="D863" s="57"/>
     </row>
     <row r="864">
-      <c r="D864" s="56"/>
+      <c r="D864" s="57"/>
     </row>
     <row r="865">
-      <c r="D865" s="56"/>
+      <c r="D865" s="57"/>
     </row>
     <row r="866">
-      <c r="D866" s="56"/>
+      <c r="D866" s="57"/>
     </row>
     <row r="867">
-      <c r="D867" s="56"/>
+      <c r="D867" s="57"/>
     </row>
     <row r="868">
-      <c r="D868" s="56"/>
+      <c r="D868" s="57"/>
     </row>
     <row r="869">
-      <c r="D869" s="56"/>
+      <c r="D869" s="57"/>
     </row>
     <row r="870">
-      <c r="D870" s="56"/>
+      <c r="D870" s="57"/>
     </row>
     <row r="871">
-      <c r="D871" s="56"/>
+      <c r="D871" s="57"/>
     </row>
     <row r="872">
-      <c r="D872" s="56"/>
+      <c r="D872" s="57"/>
     </row>
     <row r="873">
-      <c r="D873" s="56"/>
+      <c r="D873" s="57"/>
     </row>
     <row r="874">
-      <c r="D874" s="56"/>
+      <c r="D874" s="57"/>
     </row>
     <row r="875">
-      <c r="D875" s="56"/>
+      <c r="D875" s="57"/>
     </row>
     <row r="876">
-      <c r="D876" s="56"/>
+      <c r="D876" s="57"/>
     </row>
     <row r="877">
-      <c r="D877" s="56"/>
+      <c r="D877" s="57"/>
     </row>
     <row r="878">
-      <c r="D878" s="56"/>
+      <c r="D878" s="57"/>
     </row>
     <row r="879">
-      <c r="D879" s="56"/>
+      <c r="D879" s="57"/>
     </row>
     <row r="880">
-      <c r="D880" s="56"/>
+      <c r="D880" s="57"/>
     </row>
     <row r="881">
-      <c r="D881" s="56"/>
+      <c r="D881" s="57"/>
     </row>
     <row r="882">
-      <c r="D882" s="56"/>
+      <c r="D882" s="57"/>
     </row>
     <row r="883">
-      <c r="D883" s="56"/>
+      <c r="D883" s="57"/>
     </row>
     <row r="884">
-      <c r="D884" s="56"/>
+      <c r="D884" s="57"/>
     </row>
     <row r="885">
-      <c r="D885" s="56"/>
+      <c r="D885" s="57"/>
     </row>
     <row r="886">
-      <c r="D886" s="56"/>
+      <c r="D886" s="57"/>
     </row>
     <row r="887">
-      <c r="D887" s="56"/>
+      <c r="D887" s="57"/>
     </row>
     <row r="888">
-      <c r="D888" s="56"/>
+      <c r="D888" s="57"/>
     </row>
     <row r="889">
-      <c r="D889" s="56"/>
+      <c r="D889" s="57"/>
     </row>
     <row r="890">
-      <c r="D890" s="56"/>
+      <c r="D890" s="57"/>
     </row>
     <row r="891">
-      <c r="D891" s="56"/>
+      <c r="D891" s="57"/>
     </row>
     <row r="892">
-      <c r="D892" s="56"/>
+      <c r="D892" s="57"/>
     </row>
     <row r="893">
-      <c r="D893" s="56"/>
+      <c r="D893" s="57"/>
     </row>
     <row r="894">
-      <c r="D894" s="56"/>
+      <c r="D894" s="57"/>
     </row>
     <row r="895">
-      <c r="D895" s="56"/>
+      <c r="D895" s="57"/>
     </row>
     <row r="896">
-      <c r="D896" s="56"/>
+      <c r="D896" s="57"/>
     </row>
     <row r="897">
-      <c r="D897" s="56"/>
+      <c r="D897" s="57"/>
     </row>
     <row r="898">
-      <c r="D898" s="56"/>
+      <c r="D898" s="57"/>
     </row>
     <row r="899">
-      <c r="D899" s="56"/>
+      <c r="D899" s="57"/>
     </row>
     <row r="900">
-      <c r="D900" s="56"/>
+      <c r="D900" s="57"/>
     </row>
     <row r="901">
-      <c r="D901" s="56"/>
+      <c r="D901" s="57"/>
     </row>
     <row r="902">
-      <c r="D902" s="56"/>
+      <c r="D902" s="57"/>
     </row>
     <row r="903">
-      <c r="D903" s="56"/>
+      <c r="D903" s="57"/>
     </row>
     <row r="904">
-      <c r="D904" s="56"/>
+      <c r="D904" s="57"/>
     </row>
     <row r="905">
-      <c r="D905" s="56"/>
+      <c r="D905" s="57"/>
     </row>
     <row r="906">
-      <c r="D906" s="56"/>
+      <c r="D906" s="57"/>
     </row>
     <row r="907">
-      <c r="D907" s="56"/>
+      <c r="D907" s="57"/>
     </row>
     <row r="908">
-      <c r="D908" s="56"/>
+      <c r="D908" s="57"/>
     </row>
     <row r="909">
-      <c r="D909" s="56"/>
+      <c r="D909" s="57"/>
     </row>
     <row r="910">
-      <c r="D910" s="56"/>
+      <c r="D910" s="57"/>
     </row>
     <row r="911">
-      <c r="D911" s="56"/>
+      <c r="D911" s="57"/>
     </row>
     <row r="912">
-      <c r="D912" s="56"/>
+      <c r="D912" s="57"/>
     </row>
     <row r="913">
-      <c r="D913" s="56"/>
+      <c r="D913" s="57"/>
     </row>
     <row r="914">
-      <c r="D914" s="56"/>
+      <c r="D914" s="57"/>
     </row>
     <row r="915">
-      <c r="D915" s="56"/>
+      <c r="D915" s="57"/>
     </row>
     <row r="916">
-      <c r="D916" s="56"/>
+      <c r="D916" s="57"/>
     </row>
     <row r="917">
-      <c r="D917" s="56"/>
+      <c r="D917" s="57"/>
     </row>
     <row r="918">
-      <c r="D918" s="56"/>
+      <c r="D918" s="57"/>
     </row>
     <row r="919">
-      <c r="D919" s="56"/>
+      <c r="D919" s="57"/>
     </row>
     <row r="920">
-      <c r="D920" s="56"/>
+      <c r="D920" s="57"/>
     </row>
     <row r="921">
-      <c r="D921" s="56"/>
+      <c r="D921" s="57"/>
     </row>
     <row r="922">
-      <c r="D922" s="56"/>
+      <c r="D922" s="57"/>
     </row>
     <row r="923">
-      <c r="D923" s="56"/>
+      <c r="D923" s="57"/>
     </row>
     <row r="924">
-      <c r="D924" s="56"/>
+      <c r="D924" s="57"/>
     </row>
     <row r="925">
-      <c r="D925" s="56"/>
+      <c r="D925" s="57"/>
     </row>
     <row r="926">
-      <c r="D926" s="56"/>
+      <c r="D926" s="57"/>
     </row>
     <row r="927">
-      <c r="D927" s="56"/>
+      <c r="D927" s="57"/>
     </row>
     <row r="928">
-      <c r="D928" s="56"/>
+      <c r="D928" s="57"/>
     </row>
     <row r="929">
-      <c r="D929" s="56"/>
+      <c r="D929" s="57"/>
     </row>
     <row r="930">
-      <c r="D930" s="56"/>
+      <c r="D930" s="57"/>
     </row>
     <row r="931">
-      <c r="D931" s="56"/>
+      <c r="D931" s="57"/>
     </row>
     <row r="932">
-      <c r="D932" s="56"/>
+      <c r="D932" s="57"/>
     </row>
     <row r="933">
-      <c r="D933" s="56"/>
+      <c r="D933" s="57"/>
     </row>
     <row r="934">
-      <c r="D934" s="56"/>
+      <c r="D934" s="57"/>
     </row>
     <row r="935">
-      <c r="D935" s="56"/>
+      <c r="D935" s="57"/>
     </row>
     <row r="936">
-      <c r="D936" s="56"/>
+      <c r="D936" s="57"/>
     </row>
     <row r="937">
-      <c r="D937" s="56"/>
+      <c r="D937" s="57"/>
     </row>
     <row r="938">
-      <c r="D938" s="56"/>
+      <c r="D938" s="57"/>
     </row>
     <row r="939">
-      <c r="D939" s="56"/>
+      <c r="D939" s="57"/>
     </row>
     <row r="940">
-      <c r="D940" s="56"/>
+      <c r="D940" s="57"/>
     </row>
     <row r="941">
-      <c r="D941" s="56"/>
+      <c r="D941" s="57"/>
     </row>
     <row r="942">
-      <c r="D942" s="56"/>
+      <c r="D942" s="57"/>
     </row>
     <row r="943">
-      <c r="D943" s="56"/>
+      <c r="D943" s="57"/>
     </row>
     <row r="944">
-      <c r="D944" s="56"/>
+      <c r="D944" s="57"/>
     </row>
     <row r="945">
-      <c r="D945" s="56"/>
+      <c r="D945" s="57"/>
     </row>
     <row r="946">
-      <c r="D946" s="56"/>
+      <c r="D946" s="57"/>
     </row>
     <row r="947">
-      <c r="D947" s="56"/>
+      <c r="D947" s="57"/>
     </row>
     <row r="948">
-      <c r="D948" s="56"/>
+      <c r="D948" s="57"/>
     </row>
     <row r="949">
-      <c r="D949" s="56"/>
+      <c r="D949" s="57"/>
     </row>
     <row r="950">
-      <c r="D950" s="56"/>
+      <c r="D950" s="57"/>
     </row>
     <row r="951">
-      <c r="D951" s="56"/>
+      <c r="D951" s="57"/>
     </row>
     <row r="952">
-      <c r="D952" s="56"/>
+      <c r="D952" s="57"/>
     </row>
     <row r="953">
-      <c r="D953" s="56"/>
+      <c r="D953" s="57"/>
     </row>
     <row r="954">
-      <c r="D954" s="56"/>
+      <c r="D954" s="57"/>
     </row>
     <row r="955">
-      <c r="D955" s="56"/>
+      <c r="D955" s="57"/>
     </row>
     <row r="956">
-      <c r="D956" s="56"/>
+      <c r="D956" s="57"/>
     </row>
     <row r="957">
-      <c r="D957" s="56"/>
+      <c r="D957" s="57"/>
     </row>
     <row r="958">
-      <c r="D958" s="56"/>
+      <c r="D958" s="57"/>
     </row>
     <row r="959">
-      <c r="D959" s="56"/>
+      <c r="D959" s="57"/>
     </row>
     <row r="960">
-      <c r="D960" s="56"/>
+      <c r="D960" s="57"/>
     </row>
     <row r="961">
-      <c r="D961" s="56"/>
+      <c r="D961" s="57"/>
     </row>
     <row r="962">
-      <c r="D962" s="56"/>
+      <c r="D962" s="57"/>
     </row>
     <row r="963">
-      <c r="D963" s="56"/>
+      <c r="D963" s="57"/>
     </row>
     <row r="964">
-      <c r="D964" s="56"/>
+      <c r="D964" s="57"/>
     </row>
     <row r="965">
-      <c r="D965" s="56"/>
+      <c r="D965" s="57"/>
     </row>
     <row r="966">
-      <c r="D966" s="56"/>
+      <c r="D966" s="57"/>
     </row>
     <row r="967">
-      <c r="D967" s="56"/>
+      <c r="D967" s="57"/>
     </row>
     <row r="968">
-      <c r="D968" s="56"/>
+      <c r="D968" s="57"/>
     </row>
     <row r="969">
-      <c r="D969" s="56"/>
+      <c r="D969" s="57"/>
     </row>
     <row r="970">
-      <c r="D970" s="56"/>
+      <c r="D970" s="57"/>
     </row>
     <row r="971">
-      <c r="D971" s="56"/>
+      <c r="D971" s="57"/>
     </row>
     <row r="972">
-      <c r="D972" s="56"/>
+      <c r="D972" s="57"/>
     </row>
     <row r="973">
-      <c r="D973" s="56"/>
+      <c r="D973" s="57"/>
     </row>
     <row r="974">
-      <c r="D974" s="56"/>
+      <c r="D974" s="57"/>
     </row>
     <row r="975">
-      <c r="D975" s="56"/>
+      <c r="D975" s="57"/>
     </row>
     <row r="976">
-      <c r="D976" s="56"/>
+      <c r="D976" s="57"/>
     </row>
     <row r="977">
-      <c r="D977" s="56"/>
+      <c r="D977" s="57"/>
     </row>
     <row r="978">
-      <c r="D978" s="56"/>
+      <c r="D978" s="57"/>
     </row>
     <row r="979">
-      <c r="D979" s="56"/>
+      <c r="D979" s="57"/>
     </row>
     <row r="980">
-      <c r="D980" s="56"/>
+      <c r="D980" s="57"/>
     </row>
     <row r="981">
-      <c r="D981" s="56"/>
+      <c r="D981" s="57"/>
     </row>
     <row r="982">
-      <c r="D982" s="56"/>
+      <c r="D982" s="57"/>
     </row>
     <row r="983">
-      <c r="D983" s="56"/>
+      <c r="D983" s="57"/>
     </row>
     <row r="984">
-      <c r="D984" s="56"/>
+      <c r="D984" s="57"/>
     </row>
     <row r="985">
-      <c r="D985" s="56"/>
+      <c r="D985" s="57"/>
     </row>
     <row r="986">
-      <c r="D986" s="56"/>
+      <c r="D986" s="57"/>
     </row>
     <row r="987">
-      <c r="D987" s="56"/>
+      <c r="D987" s="57"/>
     </row>
     <row r="988">
-      <c r="D988" s="56"/>
+      <c r="D988" s="57"/>
     </row>
     <row r="989">
-      <c r="D989" s="56"/>
+      <c r="D989" s="57"/>
     </row>
     <row r="990">
-      <c r="D990" s="56"/>
+      <c r="D990" s="57"/>
     </row>
     <row r="991">
-      <c r="D991" s="56"/>
+      <c r="D991" s="57"/>
     </row>
     <row r="992">
-      <c r="D992" s="56"/>
+      <c r="D992" s="57"/>
     </row>
     <row r="993">
-      <c r="D993" s="56"/>
+      <c r="D993" s="57"/>
     </row>
     <row r="994">
-      <c r="D994" s="56"/>
+      <c r="D994" s="57"/>
     </row>
     <row r="995">
-      <c r="D995" s="56"/>
+      <c r="D995" s="57"/>
     </row>
     <row r="996">
-      <c r="D996" s="56"/>
+      <c r="D996" s="57"/>
     </row>
     <row r="997">
-      <c r="D997" s="56"/>
+      <c r="D997" s="57"/>
     </row>
     <row r="998">
-      <c r="D998" s="56"/>
+      <c r="D998" s="57"/>
     </row>
     <row r="999">
-      <c r="D999" s="56"/>
+      <c r="D999" s="57"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="56"/>
+      <c r="D1000" s="57"/>
     </row>
     <row r="1001">
-      <c r="D1001" s="56"/>
+      <c r="D1001" s="57"/>
     </row>
     <row r="1002">
-      <c r="D1002" s="56"/>
+      <c r="D1002" s="57"/>
     </row>
     <row r="1003">
-      <c r="D1003" s="56"/>
+      <c r="D1003" s="57"/>
     </row>
     <row r="1004">
-      <c r="D1004" s="56"/>
+      <c r="D1004" s="57"/>
     </row>
     <row r="1005">
-      <c r="D1005" s="56"/>
+      <c r="D1005" s="57"/>
     </row>
     <row r="1006">
-      <c r="D1006" s="56"/>
+      <c r="D1006" s="57"/>
     </row>
     <row r="1007">
-      <c r="D1007" s="56"/>
+      <c r="D1007" s="57"/>
     </row>
     <row r="1008">
-      <c r="D1008" s="56"/>
+      <c r="D1008" s="57"/>
     </row>
     <row r="1009">
-      <c r="D1009" s="56"/>
+      <c r="D1009" s="57"/>
     </row>
     <row r="1010">
-      <c r="D1010" s="56"/>
+      <c r="D1010" s="57"/>
     </row>
     <row r="1011">
-      <c r="D1011" s="56"/>
+      <c r="D1011" s="57"/>
     </row>
     <row r="1012">
-      <c r="D1012" s="56"/>
+      <c r="D1012" s="57"/>
     </row>
     <row r="1013">
-      <c r="D1013" s="56"/>
+      <c r="D1013" s="57"/>
     </row>
     <row r="1014">
-      <c r="D1014" s="56"/>
+      <c r="D1014" s="57"/>
     </row>
     <row r="1015">
-      <c r="D1015" s="56"/>
+      <c r="D1015" s="57"/>
     </row>
     <row r="1016">
-      <c r="D1016" s="56"/>
+      <c r="D1016" s="57"/>
     </row>
     <row r="1017">
-      <c r="D1017" s="56"/>
+      <c r="D1017" s="57"/>
     </row>
     <row r="1018">
-      <c r="D1018" s="56"/>
+      <c r="D1018" s="57"/>
     </row>
     <row r="1019">
-      <c r="D1019" s="56"/>
+      <c r="D1019" s="57"/>
     </row>
     <row r="1020">
-      <c r="D1020" s="56"/>
+      <c r="D1020" s="57"/>
+    </row>
+    <row r="1021">
+      <c r="D1021" s="57"/>
+    </row>
+    <row r="1022">
+      <c r="D1022" s="57"/>
+    </row>
+    <row r="1023">
+      <c r="D1023" s="57"/>
+    </row>
+    <row r="1024">
+      <c r="D1024" s="57"/>
+    </row>
+    <row r="1025">
+      <c r="D1025" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="63">

--- a/whatsapp-bot/מוזמנים חתונה.xlsx
+++ b/whatsapp-bot/מוזמנים חתונה.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="397">
   <si>
     <t>שם המוזמן</t>
   </si>
@@ -166,6 +166,9 @@
     <t>אינשרח אל טורי</t>
   </si>
   <si>
+    <t>לשאול</t>
+  </si>
+  <si>
     <t>שהד מרבט</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
     <t>משפחה כלה</t>
   </si>
   <si>
-    <t>מושיקו אמיני</t>
-  </si>
-  <si>
     <t>מתן אמיני</t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>דני אמיני</t>
   </si>
   <si>
-    <t>יפה אמיני</t>
+    <t>מהין דוסטאר</t>
   </si>
   <si>
     <t>משפחת הכלה</t>
@@ -205,9 +205,6 @@
     <t>טלפון בית</t>
   </si>
   <si>
-    <t>מהין דוסטאר</t>
-  </si>
-  <si>
     <t xml:space="preserve">מיטל משגבי </t>
   </si>
   <si>
@@ -322,6 +319,9 @@
     <t>רננאל בן אור</t>
   </si>
   <si>
+    <t>דימטרה</t>
+  </si>
+  <si>
     <t>אגם ימין</t>
   </si>
   <si>
@@ -343,6 +343,9 @@
     <t>אורנה צ'פרוט</t>
   </si>
   <si>
+    <t>לשאול את אמא של אורטל</t>
+  </si>
+  <si>
     <t>טובה האס</t>
   </si>
   <si>
@@ -577,7 +580,7 @@
     <t>ענת כהן</t>
   </si>
   <si>
-    <t>ריקי ואנונו</t>
+    <t>ריקי עבדהו</t>
   </si>
   <si>
     <t>אליאן מכבי כהן</t>
@@ -973,6 +976,9 @@
     <t>לוסי פרויס</t>
   </si>
   <si>
+    <t>לשאול את אמא</t>
+  </si>
+  <si>
     <t>דני תורן</t>
   </si>
   <si>
@@ -982,6 +988,36 @@
     <t>לילי כהן</t>
   </si>
   <si>
+    <t>יאיר תורן</t>
+  </si>
+  <si>
+    <t>עידן תורן</t>
+  </si>
+  <si>
+    <t>אבישי תורן</t>
+  </si>
+  <si>
+    <t>נטלי תורן</t>
+  </si>
+  <si>
+    <t>אמיר תורן</t>
+  </si>
+  <si>
+    <t>מאייר פרויס</t>
+  </si>
+  <si>
+    <t>**** לבנות מחדש parser עבור כאלו אם מספר שונה עכשיו וכאלה שהוספתי</t>
+  </si>
+  <si>
+    <t>אלן פרויס</t>
+  </si>
+  <si>
+    <t>עדן תורן</t>
+  </si>
+  <si>
+    <t>סמי תורן</t>
+  </si>
+  <si>
     <t>קטי קופרסמיד</t>
   </si>
   <si>
@@ -1004,6 +1040,9 @@
   </si>
   <si>
     <t>ברטה קמינסקי</t>
+  </si>
+  <si>
+    <t>שרה קמינסקי</t>
   </si>
   <si>
     <t>דוד לוי</t>
@@ -1478,11 +1517,11 @@
     <xf borderId="1" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="1" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="1"/>
@@ -2373,10 +2412,13 @@
         <v>22</v>
       </c>
       <c r="E36" s="19"/>
+      <c r="F36" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="8">
         <v>1.0</v>
@@ -2391,7 +2433,7 @@
     </row>
     <row r="38">
       <c r="A38" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="8">
         <v>0.0</v>
@@ -2406,7 +2448,7 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="8">
         <v>2.0</v>
@@ -2414,622 +2456,620 @@
       <c r="C39" s="8">
         <v>5.46120375E8</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>54</v>
+      <c r="D39" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E39" s="19"/>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="8">
+        <v>5.28081531E8</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C40" s="8">
-        <v>5.77752193E8</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="8">
         <v>2.0</v>
       </c>
       <c r="C41" s="8">
-        <v>5.28081531E8</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>54</v>
+        <v>5.22757908E8</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E41" s="19"/>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="8">
         <v>2.0</v>
       </c>
       <c r="C42" s="8">
-        <v>5.22757908E8</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>54</v>
+        <v>5.42827111E8</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E42" s="19"/>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="8">
         <v>2.0</v>
       </c>
       <c r="C43" s="8">
-        <v>5.42827111E8</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>54</v>
+        <v>5.04247484E8</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="E43" s="19"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>5.44643035E8</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="20">
+        <v>3.5528924E7</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="20">
         <v>2.0</v>
       </c>
-      <c r="C44" s="8">
-        <v>5.04247484E8</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="C45" s="8">
-        <v>5.44643035E8</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="20">
-        <v>1.0</v>
-      </c>
       <c r="C46" s="20">
-        <v>3.5035936E7</v>
+        <v>5.43286686E8</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>63</v>
+      <c r="E46" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="20">
-        <v>1.0</v>
+      <c r="A47" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C47" s="20">
-        <v>3.5528924E7</v>
+        <v>5.33133439E8</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>63</v>
+      <c r="E47" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="20">
+      <c r="A48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="8">
         <v>2.0</v>
       </c>
-      <c r="C48" s="20">
-        <v>5.43286686E8</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="C48" s="8">
+        <v>5.44975784E8</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="20">
-        <v>5.33133439E8</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>5.32503464E8</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="19"/>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="8">
         <v>2.0</v>
       </c>
       <c r="C50" s="8">
-        <v>5.44975784E8</v>
+        <v>5.27929579E8</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>70</v>
+      <c r="A51" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B51" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" s="8">
-        <v>5.32503464E8</v>
+        <v>5.24206411E8</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="8">
         <v>2.0</v>
       </c>
       <c r="C52" s="8">
-        <v>5.27929579E8</v>
+        <v>5.05641636E8</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="19"/>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
-        <v>72</v>
+      <c r="A53" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B53" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C53" s="8">
-        <v>5.24206411E8</v>
+        <v>5.25019504E8</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="8">
         <v>2.0</v>
       </c>
       <c r="C54" s="8">
-        <v>5.05641636E8</v>
+        <v>5.44898239E8</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="19"/>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="8">
         <v>2.0</v>
       </c>
       <c r="C55" s="8">
-        <v>5.25019504E8</v>
+        <v>5.28796269E8</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="19"/>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C56" s="8">
-        <v>5.44898239E8</v>
+        <v>5.22217505E8</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="19"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="8">
         <v>2.0</v>
       </c>
       <c r="C57" s="8">
-        <v>5.28796269E8</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>69</v>
+        <v>5.44417081E8</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="E57" s="19"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B58" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C58" s="8">
-        <v>5.22217505E8</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>69</v>
+        <v>5.46850005E8</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="E58" s="19"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="8">
         <v>2.0</v>
       </c>
       <c r="C59" s="8">
-        <v>5.44417081E8</v>
+        <v>5.47820004E8</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>80</v>
+      <c r="A60" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B60" s="8">
         <v>2.0</v>
       </c>
       <c r="C60" s="8">
-        <v>5.46850005E8</v>
+        <v>5.26126002E8</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C61" s="8">
-        <v>5.47820004E8</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="19"/>
+      <c r="A61" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="20">
+        <v>5.23420078E8</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C62" s="8">
-        <v>5.26126002E8</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="19"/>
+      <c r="A62" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C62" s="20">
+        <v>5.28906122E8</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="28" t="s">
-        <v>83</v>
+      <c r="A63" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="B63" s="20">
         <v>1.0</v>
       </c>
       <c r="C63" s="20">
-        <v>5.23420078E8</v>
+        <v>5.46702404E8</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C64" s="20">
-        <v>5.28906122E8</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>79</v>
-      </c>
+      <c r="A64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="8">
+        <v>5.23319945E8</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="19"/>
     </row>
     <row r="65">
-      <c r="A65" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="20">
-        <v>5.46702404E8</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>79</v>
-      </c>
+      <c r="A65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="8">
+        <v>5.23230119E8</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="31"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C66" s="8">
+        <v>5.24445148E8</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C66" s="8">
-        <v>5.23319945E8</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="E66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>88</v>
+      <c r="A67" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B67" s="8">
         <v>1.0</v>
       </c>
       <c r="C67" s="8">
-        <v>5.23230119E8</v>
+        <v>5.23898068E8</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="31"/>
+        <v>86</v>
+      </c>
+      <c r="E67" s="19"/>
     </row>
     <row r="68">
       <c r="A68" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="8">
         <v>1.0</v>
       </c>
       <c r="C68" s="8">
-        <v>5.24445148E8</v>
+        <v>5.49904933E8</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="19"/>
     </row>
     <row r="69">
       <c r="A69" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="8">
         <v>1.0</v>
       </c>
       <c r="C69" s="8">
-        <v>5.23898068E8</v>
+        <v>5.22285578E8</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="19"/>
     </row>
     <row r="70">
       <c r="A70" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="8">
         <v>1.0</v>
       </c>
       <c r="C70" s="8">
-        <v>5.49904933E8</v>
+        <v>5.22894119E8</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="E70" s="31"/>
     </row>
     <row r="71">
       <c r="A71" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="8">
         <v>1.0</v>
       </c>
       <c r="C71" s="8">
-        <v>5.22285578E8</v>
+        <v>5.4331232E8</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="19"/>
     </row>
     <row r="72">
       <c r="A72" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="8">
         <v>1.0</v>
       </c>
       <c r="C72" s="8">
-        <v>5.22894119E8</v>
+        <v>5.25163973E8</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="31"/>
+        <v>86</v>
+      </c>
+      <c r="E72" s="19"/>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
-        <v>94</v>
+      <c r="A73" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B73" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C73" s="8">
-        <v>5.4331232E8</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="19"/>
+        <v>5.06433088E8</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="33"/>
     </row>
     <row r="74">
       <c r="A74" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C74" s="8">
-        <v>5.25163973E8</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="19"/>
+        <v>5.27372255E8</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="33"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C75" s="8">
-        <v>5.06433088E8</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="33"/>
+        <v>5.33439326E8</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="19"/>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
-        <v>98</v>
+      <c r="A76" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B76" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C76" s="8">
-        <v>5.27372255E8</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="33"/>
+        <v>5.0878604E8</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="19"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>5.84201204E8</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="B77" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C77" s="8">
-        <v>5.33439326E8</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="E77" s="19"/>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="8">
         <v>1.0</v>
       </c>
       <c r="C78" s="8">
-        <v>5.0878604E8</v>
+        <v>5.33583117E8</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E78" s="19"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="8">
         <v>1.0</v>
       </c>
       <c r="C79" s="8">
-        <v>5.84201204E8</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>100</v>
+        <v>5.84923541E8</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C80" s="8">
-        <v>5.84923541E8</v>
+        <v>5.35222427E8</v>
       </c>
       <c r="D80" s="35" t="s">
         <v>104</v>
@@ -3038,13 +3078,13 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C81" s="8">
-        <v>5.35222427E8</v>
+        <v>5.4802608E8</v>
       </c>
       <c r="D81" s="35" t="s">
         <v>104</v>
@@ -3052,3681 +3092,3792 @@
       <c r="E81" s="19"/>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C82" s="8">
-        <v>5.4802608E8</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="19"/>
+      <c r="A82" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C82" s="20">
+        <v>5.49849742E8</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="23" t="s">
-        <v>107</v>
+      <c r="A83" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="B83" s="20">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C83" s="20">
-        <v>5.49849742E8</v>
+        <v>5.06289146E8</v>
       </c>
       <c r="D83" s="36" t="s">
         <v>108</v>
       </c>
+      <c r="E83" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="23" t="s">
-        <v>109</v>
+      <c r="A84" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B84" s="20">
         <v>1.0</v>
       </c>
       <c r="C84" s="20">
-        <v>5.06289146E8</v>
+        <v>5.08312151E8</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="23" t="s">
-        <v>110</v>
+      <c r="A85" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="B85" s="20">
         <v>1.0</v>
       </c>
       <c r="C85" s="20">
-        <v>5.08312151E8</v>
+        <v>5.06305773E8</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="23" t="s">
-        <v>111</v>
+      <c r="A86" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="B86" s="20">
         <v>1.0</v>
       </c>
       <c r="C86" s="20">
-        <v>5.06305773E8</v>
+        <v>5.06213593E8</v>
       </c>
       <c r="D86" s="36" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="23" t="s">
-        <v>112</v>
+      <c r="A87" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="B87" s="20">
         <v>1.0</v>
       </c>
       <c r="C87" s="20">
-        <v>5.06213593E8</v>
+        <v>5.24203707E8</v>
       </c>
       <c r="D87" s="36" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="23" t="s">
-        <v>113</v>
+      <c r="A88" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="B88" s="20">
         <v>1.0</v>
       </c>
       <c r="C88" s="20">
-        <v>5.24203707E8</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>108</v>
+        <v>5.45925067E8</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="23" t="s">
-        <v>114</v>
+      <c r="A89" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="B89" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C89" s="20">
-        <v>5.45925067E8</v>
+        <v>5.44605223E8</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C90" s="20">
+        <v>5.46978222E8</v>
+      </c>
+      <c r="D90" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="20">
+    </row>
+    <row r="91">
+      <c r="A91" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="20">
         <v>2.0</v>
       </c>
-      <c r="C90" s="20">
-        <v>5.44605223E8</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="20">
-        <v>1.0</v>
-      </c>
       <c r="C91" s="20">
-        <v>5.46978222E8</v>
+        <v>5.2838486E8</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="23" t="s">
-        <v>118</v>
+      <c r="A92" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="B92" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="20">
+        <v>5.23696349E8</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="20">
         <v>2.0</v>
       </c>
-      <c r="C92" s="20">
-        <v>5.2838486E8</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="20">
-        <v>1.0</v>
-      </c>
       <c r="C93" s="20">
-        <v>5.23696349E8</v>
+        <v>5.22249213E8</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="23" t="s">
-        <v>120</v>
+      <c r="A94" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="B94" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C94" s="20">
-        <v>5.22249213E8</v>
+        <v>8.8522381E7</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C95" s="20">
-        <v>8.8522381E7</v>
+        <v>5.46666752E8</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="20">
         <v>2.0</v>
       </c>
       <c r="C96" s="20">
-        <v>5.46666752E8</v>
+        <v>5.44201579E8</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" s="20">
         <v>2.0</v>
       </c>
       <c r="C97" s="20">
-        <v>5.44201579E8</v>
+        <v>5.08872406E8</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="20">
         <v>2.0</v>
       </c>
       <c r="C98" s="20">
-        <v>5.08872406E8</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>115</v>
+        <v>5.26392923E8</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="25" t="s">
-        <v>125</v>
+      <c r="A99" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="B99" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C99" s="20">
-        <v>5.26392923E8</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>126</v>
+        <v>5.2861666E8</v>
+      </c>
+      <c r="D99" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="23" t="s">
-        <v>127</v>
+      <c r="A100" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="B100" s="20">
         <v>1.0</v>
       </c>
       <c r="C100" s="20">
-        <v>5.2861666E8</v>
+        <v>5.08741614E8</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C101" s="20">
+        <v>5.23969505E8</v>
+      </c>
+      <c r="D101" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C101" s="20">
-        <v>5.08741614E8</v>
-      </c>
-      <c r="D101" s="39" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="102">
-      <c r="A102" s="23" t="s">
-        <v>130</v>
+      <c r="A102" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="B102" s="20">
         <v>1.0</v>
       </c>
       <c r="C102" s="20">
-        <v>5.23969505E8</v>
+        <v>5.2691122E8</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="23" t="s">
-        <v>131</v>
+      <c r="A103" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="B103" s="20">
         <v>1.0</v>
       </c>
       <c r="C103" s="20">
-        <v>5.2691122E8</v>
+        <v>5.28465156E8</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="23" t="s">
-        <v>132</v>
+      <c r="A104" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="B104" s="20">
         <v>1.0</v>
       </c>
       <c r="C104" s="20">
-        <v>5.28465156E8</v>
+        <v>5.47844798E8</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="23" t="s">
-        <v>133</v>
+      <c r="A105" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="B105" s="20">
         <v>1.0</v>
       </c>
       <c r="C105" s="20">
-        <v>5.47844798E8</v>
+        <v>5.45553437E8</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="23" t="s">
-        <v>134</v>
+      <c r="A106" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B106" s="20">
         <v>1.0</v>
       </c>
       <c r="C106" s="20">
-        <v>5.45553437E8</v>
+        <v>5.45598974E8</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="23" t="s">
-        <v>135</v>
+      <c r="A107" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="B107" s="20">
         <v>1.0</v>
       </c>
       <c r="C107" s="20">
-        <v>5.45598974E8</v>
+        <v>5.44622663E8</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
-        <v>136</v>
+      <c r="A108" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B108" s="20">
         <v>1.0</v>
       </c>
       <c r="C108" s="20">
-        <v>5.44622663E8</v>
+        <v>5.06413885E8</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="23" t="s">
-        <v>137</v>
+      <c r="A109" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B109" s="20">
         <v>1.0</v>
       </c>
       <c r="C109" s="20">
-        <v>5.06413885E8</v>
+        <v>5.44699058E8</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="23" t="s">
-        <v>138</v>
+      <c r="A110" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B110" s="20">
         <v>1.0</v>
       </c>
       <c r="C110" s="20">
-        <v>5.44699058E8</v>
+        <v>5.45879095E8</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="23" t="s">
-        <v>139</v>
+      <c r="A111" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B111" s="20">
         <v>1.0</v>
       </c>
       <c r="C111" s="20">
-        <v>5.45879095E8</v>
+        <v>5.44458411E8</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="23" t="s">
-        <v>140</v>
+      <c r="A112" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="B112" s="20">
         <v>1.0</v>
       </c>
       <c r="C112" s="20">
-        <v>5.44458411E8</v>
+        <v>5.05967023E8</v>
       </c>
       <c r="D112" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="23" t="s">
-        <v>141</v>
+      <c r="A113" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="B113" s="20">
         <v>1.0</v>
       </c>
       <c r="C113" s="20">
-        <v>5.05967023E8</v>
+        <v>5.2625556E8</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="23" t="s">
-        <v>142</v>
+      <c r="A114" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="B114" s="20">
         <v>1.0</v>
       </c>
       <c r="C114" s="20">
-        <v>5.2625556E8</v>
+        <v>5.42470477E8</v>
       </c>
       <c r="D114" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="23" t="s">
-        <v>143</v>
+      <c r="A115" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="B115" s="20">
         <v>1.0</v>
       </c>
       <c r="C115" s="20">
-        <v>5.42470477E8</v>
+        <v>5.52288525E8</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="23" t="s">
-        <v>144</v>
+      <c r="A116" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="B116" s="20">
         <v>1.0</v>
       </c>
       <c r="C116" s="20">
-        <v>5.52288525E8</v>
+        <v>5.24204578E8</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="23" t="s">
-        <v>145</v>
+      <c r="A117" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="B117" s="20">
         <v>1.0</v>
       </c>
       <c r="C117" s="20">
-        <v>5.24204578E8</v>
+        <v>5.36246468E8</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="23" t="s">
-        <v>146</v>
+      <c r="A118" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="B118" s="20">
         <v>1.0</v>
       </c>
       <c r="C118" s="20">
-        <v>5.36246468E8</v>
+        <v>5.25044486E8</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="23" t="s">
-        <v>147</v>
+      <c r="A119" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="B119" s="20">
         <v>1.0</v>
       </c>
       <c r="C119" s="20">
-        <v>5.25044486E8</v>
+        <v>5.09527595E8</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="23" t="s">
-        <v>148</v>
+      <c r="A120" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="B120" s="20">
         <v>1.0</v>
       </c>
       <c r="C120" s="20">
-        <v>5.09527595E8</v>
+        <v>5.49791845E8</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="23" t="s">
-        <v>149</v>
+      <c r="A121" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="B121" s="20">
         <v>1.0</v>
       </c>
       <c r="C121" s="20">
-        <v>5.49791845E8</v>
+        <v>5.2336485E8</v>
       </c>
       <c r="D121" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="23" t="s">
-        <v>150</v>
+      <c r="A122" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="B122" s="20">
         <v>1.0</v>
       </c>
       <c r="C122" s="20">
-        <v>5.2336485E8</v>
+        <v>5.52241661E8</v>
       </c>
       <c r="D122" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="23" t="s">
-        <v>151</v>
+      <c r="A123" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="B123" s="20">
         <v>1.0</v>
       </c>
       <c r="C123" s="20">
-        <v>5.52241661E8</v>
+        <v>5.42544207E8</v>
       </c>
       <c r="D123" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="23" t="s">
-        <v>152</v>
+      <c r="A124" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="B124" s="20">
         <v>1.0</v>
       </c>
       <c r="C124" s="20">
-        <v>5.42544207E8</v>
+        <v>5.09919019E8</v>
       </c>
       <c r="D124" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="23" t="s">
-        <v>153</v>
+      <c r="A125" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="B125" s="20">
         <v>1.0</v>
       </c>
       <c r="C125" s="20">
-        <v>5.09919019E8</v>
+        <v>5.07378767E8</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="23" t="s">
-        <v>154</v>
+      <c r="A126" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="B126" s="20">
         <v>1.0</v>
       </c>
       <c r="C126" s="20">
-        <v>5.07378767E8</v>
+        <v>5.46048436E8</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="23" t="s">
-        <v>155</v>
+      <c r="A127" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="B127" s="20">
         <v>1.0</v>
       </c>
       <c r="C127" s="20">
-        <v>5.46048436E8</v>
+        <v>5.23859876E8</v>
       </c>
       <c r="D127" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="23" t="s">
-        <v>156</v>
+      <c r="A128" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="B128" s="20">
         <v>1.0</v>
       </c>
       <c r="C128" s="20">
-        <v>5.23859876E8</v>
+        <v>5.06955226E8</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="23" t="s">
-        <v>157</v>
+      <c r="A129" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="B129" s="20">
         <v>1.0</v>
       </c>
       <c r="C129" s="20">
-        <v>5.06955226E8</v>
+        <v>5.26158119E8</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="23" t="s">
-        <v>158</v>
+      <c r="A130" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="B130" s="20">
         <v>1.0</v>
       </c>
       <c r="C130" s="20">
-        <v>5.26158119E8</v>
+        <v>5.47822397E8</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="23" t="s">
-        <v>159</v>
+      <c r="A131" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="B131" s="20">
         <v>1.0</v>
       </c>
       <c r="C131" s="20">
-        <v>5.47822397E8</v>
+        <v>5.56688683E8</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="23" t="s">
-        <v>160</v>
+      <c r="A132" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="B132" s="20">
         <v>1.0</v>
       </c>
       <c r="C132" s="20">
-        <v>5.56688683E8</v>
+        <v>5.23536369E8</v>
       </c>
       <c r="D132" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="23" t="s">
-        <v>161</v>
+      <c r="A133" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="B133" s="20">
         <v>1.0</v>
       </c>
       <c r="C133" s="20">
-        <v>5.23536369E8</v>
+        <v>5.46883379E8</v>
       </c>
       <c r="D133" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="23" t="s">
-        <v>162</v>
+      <c r="A134" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="B134" s="20">
         <v>1.0</v>
       </c>
       <c r="C134" s="20">
-        <v>5.46883379E8</v>
+        <v>5.07955553E8</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="23" t="s">
-        <v>163</v>
+      <c r="A135" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="B135" s="20">
         <v>1.0</v>
       </c>
       <c r="C135" s="20">
-        <v>5.07955553E8</v>
+        <v>5.49364943E8</v>
       </c>
       <c r="D135" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="23" t="s">
-        <v>164</v>
+      <c r="A136" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="B136" s="20">
         <v>1.0</v>
       </c>
       <c r="C136" s="20">
-        <v>5.49364943E8</v>
+        <v>5.07554778E8</v>
       </c>
       <c r="D136" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="23" t="s">
-        <v>165</v>
+      <c r="A137" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="B137" s="20">
         <v>1.0</v>
       </c>
       <c r="C137" s="20">
-        <v>5.07554778E8</v>
+        <v>5.25646019E8</v>
       </c>
       <c r="D137" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="23" t="s">
-        <v>166</v>
+      <c r="A138" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="B138" s="20">
         <v>1.0</v>
       </c>
       <c r="C138" s="20">
-        <v>5.25646019E8</v>
+        <v>5.2350789E8</v>
       </c>
       <c r="D138" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="23" t="s">
-        <v>167</v>
+      <c r="A139" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="B139" s="20">
         <v>1.0</v>
       </c>
       <c r="C139" s="20">
-        <v>5.2350789E8</v>
+        <v>5.06365668E8</v>
       </c>
       <c r="D139" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="23" t="s">
-        <v>168</v>
+      <c r="A140" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="B140" s="20">
         <v>1.0</v>
       </c>
       <c r="C140" s="20">
-        <v>5.06365668E8</v>
+        <v>5.49988829E8</v>
       </c>
       <c r="D140" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="23" t="s">
-        <v>169</v>
+      <c r="A141" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="B141" s="20">
         <v>1.0</v>
       </c>
       <c r="C141" s="20">
-        <v>5.49988829E8</v>
+        <v>5.4535359E8</v>
       </c>
       <c r="D141" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="23" t="s">
-        <v>170</v>
+      <c r="A142" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="B142" s="20">
         <v>1.0</v>
       </c>
       <c r="C142" s="20">
-        <v>5.4535359E8</v>
+        <v>5.04689777E8</v>
       </c>
       <c r="D142" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="23" t="s">
-        <v>171</v>
+      <c r="A143" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="B143" s="20">
         <v>1.0</v>
       </c>
       <c r="C143" s="20">
-        <v>5.04689777E8</v>
+        <v>5.06468354E8</v>
       </c>
       <c r="D143" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23" t="s">
-        <v>172</v>
+      <c r="A144" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B144" s="20">
         <v>1.0</v>
       </c>
       <c r="C144" s="20">
-        <v>5.06468354E8</v>
+        <v>5.26068804E8</v>
       </c>
       <c r="D144" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
-        <v>173</v>
+      <c r="A145" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="B145" s="20">
         <v>1.0</v>
       </c>
       <c r="C145" s="20">
-        <v>5.26068804E8</v>
+        <v>5.42479825E8</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="23" t="s">
-        <v>174</v>
+      <c r="A146" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="B146" s="20">
         <v>1.0</v>
       </c>
       <c r="C146" s="20">
-        <v>5.42479825E8</v>
+        <v>5.43153677E8</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>175</v>
+      <c r="A147" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="B147" s="20">
         <v>1.0</v>
       </c>
       <c r="C147" s="20">
-        <v>5.43153677E8</v>
+        <v>5.26030763E8</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="23" t="s">
-        <v>176</v>
+      <c r="A148" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="B148" s="20">
         <v>1.0</v>
       </c>
       <c r="C148" s="20">
-        <v>5.26030763E8</v>
+        <v>5.05746353E8</v>
       </c>
       <c r="D148" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="23" t="s">
-        <v>177</v>
+      <c r="A149" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B149" s="20">
         <v>1.0</v>
       </c>
       <c r="C149" s="20">
-        <v>5.05746353E8</v>
+        <v>5.05159015E8</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="23" t="s">
-        <v>178</v>
+      <c r="A150" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="B150" s="20">
         <v>1.0</v>
       </c>
       <c r="C150" s="20">
-        <v>5.05159015E8</v>
+        <v>5.25594372E8</v>
       </c>
       <c r="D150" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="23" t="s">
-        <v>179</v>
+      <c r="A151" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="B151" s="20">
         <v>1.0</v>
       </c>
       <c r="C151" s="20">
-        <v>5.25594372E8</v>
+        <v>5.29568235E8</v>
       </c>
       <c r="D151" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="23" t="s">
-        <v>180</v>
+      <c r="A152" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="B152" s="20">
         <v>1.0</v>
       </c>
       <c r="C152" s="20">
-        <v>5.29568235E8</v>
+        <v>5.28528003E8</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>181</v>
+      <c r="A153" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="B153" s="20">
         <v>1.0</v>
       </c>
       <c r="C153" s="20">
-        <v>5.28528003E8</v>
+        <v>5.22349082E8</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="23" t="s">
-        <v>182</v>
+      <c r="A154" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="B154" s="20">
         <v>1.0</v>
       </c>
       <c r="C154" s="20">
-        <v>5.22349082E8</v>
+        <v>5.06532051E8</v>
       </c>
       <c r="D154" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="23" t="s">
-        <v>183</v>
+      <c r="A155" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B155" s="20">
         <v>1.0</v>
       </c>
       <c r="C155" s="20">
-        <v>5.06532051E8</v>
+        <v>5.05204448E8</v>
       </c>
       <c r="D155" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="23" t="s">
-        <v>184</v>
+      <c r="A156" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="B156" s="20">
         <v>1.0</v>
       </c>
       <c r="C156" s="20">
-        <v>5.05204448E8</v>
+        <v>5.07294029E8</v>
       </c>
       <c r="D156" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="23" t="s">
-        <v>185</v>
+      <c r="A157" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="B157" s="20">
         <v>1.0</v>
       </c>
       <c r="C157" s="20">
-        <v>5.07294029E8</v>
+        <v>5.22909217E8</v>
       </c>
       <c r="D157" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="25" t="s">
-        <v>186</v>
+      <c r="A158" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="B158" s="20">
         <v>1.0</v>
       </c>
       <c r="C158" s="20">
-        <v>5.22909217E8</v>
+        <v>5.22709162E8</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="23" t="s">
-        <v>187</v>
+      <c r="A159" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="B159" s="20">
         <v>1.0</v>
       </c>
       <c r="C159" s="20">
-        <v>5.22709162E8</v>
+        <v>5.06517809E8</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="25" t="s">
-        <v>188</v>
+      <c r="A160" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="B160" s="20">
         <v>1.0</v>
       </c>
       <c r="C160" s="20">
-        <v>5.06517809E8</v>
+        <v>5.24381749E8</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
-        <v>189</v>
+      <c r="A161" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="B161" s="20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C161" s="20">
-        <v>5.24381749E8</v>
+        <v>5.25792579E8</v>
       </c>
       <c r="D161" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B162" s="20">
         <v>0.0</v>
       </c>
       <c r="C162" s="20">
-        <v>5.25792579E8</v>
+        <v>5.42221319E8</v>
       </c>
       <c r="D162" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B163" s="20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C163" s="20">
-        <v>5.42221319E8</v>
+        <v>5.08552205E8</v>
       </c>
       <c r="D163" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="25" t="s">
-        <v>192</v>
+      <c r="A164" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="B164" s="20">
         <v>1.0</v>
       </c>
       <c r="C164" s="20">
-        <v>5.08552205E8</v>
-      </c>
-      <c r="D164" s="39" t="s">
-        <v>128</v>
+        <v>5.2853373E8</v>
+      </c>
+      <c r="D164" s="40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="23" t="s">
-        <v>193</v>
+      <c r="A165" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="B165" s="20">
         <v>1.0</v>
       </c>
       <c r="C165" s="20">
-        <v>5.2853373E8</v>
+        <v>5.42550229E8</v>
       </c>
       <c r="D165" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B166" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C166" s="20">
+        <v>5.3620756E8</v>
+      </c>
+      <c r="D166" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B166" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C166" s="20">
-        <v>5.42550229E8</v>
-      </c>
-      <c r="D166" s="40" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="167">
-      <c r="A167" s="23" t="s">
-        <v>196</v>
+      <c r="A167" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="B167" s="20">
         <v>1.0</v>
       </c>
       <c r="C167" s="20">
-        <v>5.3620756E8</v>
+        <v>5.07960745E8</v>
       </c>
       <c r="D167" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="23" t="s">
-        <v>197</v>
+      <c r="A168" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="B168" s="20">
         <v>1.0</v>
       </c>
       <c r="C168" s="20">
-        <v>5.07960745E8</v>
+        <v>5.24520303E8</v>
       </c>
       <c r="D168" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="23" t="s">
-        <v>198</v>
+      <c r="A169" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="B169" s="20">
         <v>1.0</v>
       </c>
       <c r="C169" s="20">
-        <v>5.24520303E8</v>
+        <v>5.26303835E8</v>
       </c>
       <c r="D169" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="23" t="s">
-        <v>199</v>
+      <c r="A170" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="B170" s="20">
         <v>1.0</v>
       </c>
       <c r="C170" s="20">
-        <v>5.26303835E8</v>
+        <v>5.46335955E8</v>
       </c>
       <c r="D170" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="23" t="s">
-        <v>200</v>
+      <c r="A171" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="B171" s="20">
         <v>1.0</v>
       </c>
       <c r="C171" s="20">
-        <v>5.46335955E8</v>
+        <v>5.12358253E8</v>
       </c>
       <c r="D171" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="23" t="s">
-        <v>201</v>
+      <c r="A172" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="B172" s="20">
         <v>1.0</v>
       </c>
       <c r="C172" s="20">
-        <v>5.12358253E8</v>
+        <v>5.07510541E8</v>
       </c>
       <c r="D172" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="23" t="s">
-        <v>202</v>
+      <c r="A173" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="B173" s="20">
         <v>1.0</v>
       </c>
       <c r="C173" s="20">
-        <v>5.07510541E8</v>
+        <v>5.39265863E8</v>
       </c>
       <c r="D173" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="23" t="s">
-        <v>203</v>
+      <c r="A174" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="B174" s="20">
         <v>1.0</v>
       </c>
       <c r="C174" s="20">
-        <v>5.39265863E8</v>
+        <v>5.26868967E8</v>
       </c>
       <c r="D174" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="23" t="s">
-        <v>204</v>
+      <c r="A175" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="B175" s="20">
         <v>1.0</v>
       </c>
       <c r="C175" s="20">
-        <v>5.26868967E8</v>
+        <v>5.07517551E8</v>
       </c>
       <c r="D175" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="23" t="s">
-        <v>205</v>
+      <c r="A176" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="B176" s="20">
         <v>1.0</v>
       </c>
       <c r="C176" s="20">
-        <v>5.07517551E8</v>
+        <v>5.2653574E8</v>
       </c>
       <c r="D176" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="23" t="s">
-        <v>206</v>
+      <c r="A177" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="B177" s="20">
         <v>1.0</v>
       </c>
       <c r="C177" s="20">
-        <v>5.2653574E8</v>
+        <v>5.28080099E8</v>
       </c>
       <c r="D177" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="23" t="s">
-        <v>207</v>
+      <c r="A178" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="B178" s="20">
         <v>1.0</v>
       </c>
       <c r="C178" s="20">
-        <v>5.28080099E8</v>
+        <v>5.85421991E8</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="23" t="s">
-        <v>208</v>
+      <c r="A179" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="B179" s="20">
         <v>1.0</v>
       </c>
       <c r="C179" s="20">
-        <v>5.85421991E8</v>
+        <v>5.22990202E8</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="23" t="s">
-        <v>209</v>
+      <c r="A180" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="B180" s="20">
         <v>1.0</v>
       </c>
       <c r="C180" s="20">
-        <v>5.22990202E8</v>
+        <v>5.25531916E8</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="23" t="s">
-        <v>210</v>
+      <c r="A181" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="B181" s="20">
         <v>1.0</v>
       </c>
       <c r="C181" s="20">
-        <v>5.25531916E8</v>
+        <v>5.25612024E8</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="23" t="s">
-        <v>211</v>
+      <c r="A182" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="B182" s="20">
         <v>1.0</v>
       </c>
       <c r="C182" s="20">
-        <v>5.25612024E8</v>
+        <v>5.265995E8</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="23" t="s">
-        <v>212</v>
+      <c r="A183" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="B183" s="20">
         <v>1.0</v>
       </c>
       <c r="C183" s="20">
-        <v>5.265995E8</v>
+        <v>5.39642064E8</v>
       </c>
       <c r="D183" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="23" t="s">
-        <v>213</v>
+      <c r="A184" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="B184" s="20">
         <v>1.0</v>
       </c>
       <c r="C184" s="20">
-        <v>5.39642064E8</v>
+        <v>5.2626161E8</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="23" t="s">
-        <v>214</v>
+      <c r="A185" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="B185" s="20">
         <v>1.0</v>
       </c>
       <c r="C185" s="20">
-        <v>5.2626161E8</v>
-      </c>
-      <c r="D185" s="40" t="s">
-        <v>194</v>
+        <v>5.07974995E8</v>
+      </c>
+      <c r="D185" s="41" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="23" t="s">
-        <v>215</v>
+      <c r="A186" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="B186" s="20">
         <v>1.0</v>
       </c>
       <c r="C186" s="20">
-        <v>5.07974995E8</v>
+        <v>5.44749056E8</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C187" s="20">
+        <v>5.04212653E8</v>
+      </c>
+      <c r="D187" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B187" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C187" s="20">
-        <v>5.44749056E8</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="188">
-      <c r="A188" s="23" t="s">
-        <v>218</v>
+      <c r="A188" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="B188" s="20">
         <v>1.0</v>
       </c>
       <c r="C188" s="20">
-        <v>5.04212653E8</v>
+        <v>5.47466911E8</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="23" t="s">
-        <v>219</v>
+      <c r="A189" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="B189" s="20">
         <v>1.0</v>
       </c>
       <c r="C189" s="20">
-        <v>5.47466911E8</v>
+        <v>5.87524911E8</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="23" t="s">
-        <v>220</v>
+      <c r="A190" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="B190" s="20">
         <v>1.0</v>
       </c>
       <c r="C190" s="20">
-        <v>5.87524911E8</v>
+        <v>5.26201016E8</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="23" t="s">
-        <v>221</v>
+      <c r="A191" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="B191" s="20">
         <v>1.0</v>
       </c>
       <c r="C191" s="20">
-        <v>5.26201016E8</v>
+        <v>5.43104405E8</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="23" t="s">
-        <v>222</v>
+      <c r="A192" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="B192" s="20">
         <v>1.0</v>
       </c>
       <c r="C192" s="20">
-        <v>5.43104405E8</v>
+        <v>5.46842186E8</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="23" t="s">
-        <v>223</v>
+      <c r="A193" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="B193" s="20">
         <v>1.0</v>
       </c>
       <c r="C193" s="20">
-        <v>5.46842186E8</v>
+        <v>5.42136591E8</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="23" t="s">
-        <v>224</v>
+      <c r="A194" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="B194" s="20">
         <v>1.0</v>
       </c>
       <c r="C194" s="20">
-        <v>5.42136591E8</v>
+        <v>5.07539339E8</v>
       </c>
       <c r="D194" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="23" t="s">
-        <v>225</v>
+      <c r="A195" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="B195" s="20">
         <v>1.0</v>
       </c>
       <c r="C195" s="20">
-        <v>5.07539339E8</v>
+        <v>5.23906448E8</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="23" t="s">
-        <v>226</v>
+      <c r="A196" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="B196" s="20">
         <v>1.0</v>
       </c>
       <c r="C196" s="20">
-        <v>5.23906448E8</v>
+        <v>5.42021701E8</v>
       </c>
       <c r="D196" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="23" t="s">
-        <v>227</v>
+      <c r="A197" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="B197" s="20">
         <v>1.0</v>
       </c>
       <c r="C197" s="20">
-        <v>5.42021701E8</v>
+        <v>5.07527266E8</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="23" t="s">
-        <v>228</v>
+      <c r="A198" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="B198" s="20">
         <v>1.0</v>
       </c>
       <c r="C198" s="20">
-        <v>5.07527266E8</v>
+        <v>5.28856397E8</v>
       </c>
       <c r="D198" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="23" t="s">
-        <v>229</v>
+      <c r="A199" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="B199" s="20">
         <v>1.0</v>
       </c>
       <c r="C199" s="20">
-        <v>5.28856397E8</v>
+        <v>5.4830913E8</v>
       </c>
       <c r="D199" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="23" t="s">
-        <v>230</v>
+      <c r="A200" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="B200" s="20">
         <v>1.0</v>
       </c>
       <c r="C200" s="20">
-        <v>5.4830913E8</v>
+        <v>5.23506571E8</v>
       </c>
       <c r="D200" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="23" t="s">
-        <v>231</v>
+      <c r="A201" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="B201" s="20">
         <v>1.0</v>
       </c>
       <c r="C201" s="20">
-        <v>5.23506571E8</v>
+        <v>5.39650207E8</v>
       </c>
       <c r="D201" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="23" t="s">
-        <v>232</v>
+      <c r="A202" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="B202" s="20">
         <v>1.0</v>
       </c>
       <c r="C202" s="20">
-        <v>5.39650207E8</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>216</v>
+        <v>5.26700677E8</v>
+      </c>
+      <c r="D202" s="43" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="42" t="s">
-        <v>233</v>
+      <c r="A203" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="B203" s="20">
         <v>1.0</v>
       </c>
       <c r="C203" s="20">
-        <v>5.26700677E8</v>
+        <v>5.26891603E8</v>
       </c>
       <c r="D203" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="44" t="s">
+      <c r="A204" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B204" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C204" s="20">
+        <v>5.37678343E8</v>
+      </c>
+      <c r="D204" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="B204" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C204" s="20">
-        <v>5.26891603E8</v>
-      </c>
-      <c r="D204" s="43" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="205">
-      <c r="A205" s="23" t="s">
-        <v>236</v>
+      <c r="A205" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="B205" s="20">
         <v>1.0</v>
       </c>
       <c r="C205" s="20">
-        <v>5.05997278E8</v>
+        <v>5.42039976E8</v>
       </c>
       <c r="D205" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="23" t="s">
-        <v>237</v>
+      <c r="A206" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="B206" s="20">
         <v>1.0</v>
       </c>
       <c r="C206" s="20">
-        <v>5.42039976E8</v>
+        <v>5.45569556E8</v>
       </c>
       <c r="D206" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="23" t="s">
-        <v>238</v>
+      <c r="A207" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="B207" s="20">
         <v>1.0</v>
       </c>
       <c r="C207" s="20">
-        <v>5.45569556E8</v>
+        <v>5.02201991E8</v>
       </c>
       <c r="D207" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="23" t="s">
-        <v>239</v>
+      <c r="A208" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="B208" s="20">
         <v>1.0</v>
       </c>
       <c r="C208" s="20">
-        <v>5.02201991E8</v>
+        <v>5.49215582E8</v>
       </c>
       <c r="D208" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="23" t="s">
-        <v>240</v>
+      <c r="A209" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="B209" s="20">
         <v>1.0</v>
       </c>
       <c r="C209" s="20">
-        <v>5.49215582E8</v>
+        <v>5.38558623E8</v>
       </c>
       <c r="D209" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="23" t="s">
-        <v>241</v>
+      <c r="A210" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="B210" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C210" s="20">
-        <v>5.38558623E8</v>
+        <v>5.37678319E8</v>
       </c>
       <c r="D210" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="25" t="s">
-        <v>242</v>
+      <c r="A211" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="B211" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C211" s="20">
+        <v>5.2577898E8</v>
+      </c>
+      <c r="D211" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B212" s="20">
         <v>2.0</v>
       </c>
-      <c r="C211" s="20">
-        <v>5.37678319E8</v>
-      </c>
-      <c r="D211" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B212" s="20">
-        <v>1.0</v>
-      </c>
       <c r="C212" s="20">
-        <v>5.2577898E8</v>
+        <v>5.37678323E8</v>
       </c>
       <c r="D212" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B213" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C213" s="20">
+        <v>5.3767885E8</v>
+      </c>
+      <c r="D213" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B214" s="20">
         <v>2.0</v>
       </c>
-      <c r="C213" s="20">
-        <v>5.37678323E8</v>
-      </c>
-      <c r="D213" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B214" s="20">
-        <v>1.0</v>
-      </c>
       <c r="C214" s="20">
-        <v>5.3767885E8</v>
+        <v>5.37678293E8</v>
       </c>
       <c r="D214" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="23" t="s">
-        <v>246</v>
+      <c r="A215" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="B215" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C215" s="20">
-        <v>5.44509855E8</v>
+        <v>5.42994292E8</v>
       </c>
       <c r="D215" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B216" s="20">
         <v>1.0</v>
       </c>
       <c r="C216" s="20">
-        <v>5.42994292E8</v>
+        <v>5.37678316E8</v>
       </c>
       <c r="D216" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="44" t="s">
-        <v>248</v>
+      <c r="A217" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="B217" s="20">
         <v>1.0</v>
       </c>
       <c r="C217" s="20">
-        <v>5.37678316E8</v>
+        <v>5.05044971E8</v>
       </c>
       <c r="D217" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="23" t="s">
-        <v>249</v>
+      <c r="A218" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="B218" s="20">
         <v>1.0</v>
       </c>
       <c r="C218" s="20">
-        <v>5.43117019E8</v>
+        <v>5.37678997E8</v>
       </c>
       <c r="D218" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="23" t="s">
-        <v>250</v>
+      <c r="A219" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="B219" s="20">
         <v>1.0</v>
       </c>
       <c r="C219" s="20">
-        <v>5.76722257E8</v>
+        <v>5.37678418E8</v>
       </c>
       <c r="D219" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="23" t="s">
-        <v>251</v>
+      <c r="A220" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="B220" s="20">
         <v>1.0</v>
       </c>
       <c r="C220" s="20">
-        <v>5.44888696E8</v>
+        <v>5.0645285E8</v>
       </c>
       <c r="D220" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="23" t="s">
-        <v>252</v>
+      <c r="A221" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="B221" s="20">
         <v>1.0</v>
       </c>
       <c r="C221" s="20">
-        <v>5.0645285E8</v>
+        <v>5.3767801E8</v>
       </c>
       <c r="D221" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B222" s="20">
         <v>1.0</v>
       </c>
       <c r="C222" s="20">
-        <v>5.3767801E8</v>
+        <v>5.3429844E8</v>
       </c>
       <c r="D222" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="25" t="s">
-        <v>254</v>
+      <c r="A223" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="B223" s="20">
         <v>1.0</v>
       </c>
       <c r="C223" s="20">
-        <v>5.37678851E8</v>
+        <v>5.47985903E8</v>
       </c>
       <c r="D223" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="23" t="s">
-        <v>255</v>
+      <c r="A224" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="B224" s="20">
         <v>1.0</v>
       </c>
       <c r="C224" s="20">
-        <v>5.47985903E8</v>
+        <v>5.37678504E8</v>
       </c>
       <c r="D224" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="23" t="s">
-        <v>256</v>
+      <c r="A225" s="44" t="s">
+        <v>258</v>
       </c>
       <c r="B225" s="20">
         <v>1.0</v>
       </c>
       <c r="C225" s="20">
-        <v>5.34441819E8</v>
+        <v>5.05044719E8</v>
       </c>
       <c r="D225" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="44" t="s">
-        <v>257</v>
+      <c r="A226" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="B226" s="20">
         <v>1.0</v>
       </c>
       <c r="C226" s="20">
-        <v>5.03455755E8</v>
+        <v>5.37678021E8</v>
       </c>
       <c r="D226" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="23" t="s">
-        <v>258</v>
+      <c r="A227" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="B227" s="20">
         <v>1.0</v>
       </c>
       <c r="C227" s="20">
-        <v>5.02962048E8</v>
+        <v>5.06911201E8</v>
       </c>
       <c r="D227" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="23" t="s">
-        <v>259</v>
+      <c r="A228" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="B228" s="20">
         <v>1.0</v>
       </c>
       <c r="C228" s="20">
-        <v>5.06911201E8</v>
+        <v>5.44686285E8</v>
       </c>
       <c r="D228" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="23" t="s">
-        <v>260</v>
+      <c r="A229" s="44" t="s">
+        <v>262</v>
       </c>
       <c r="B229" s="20">
         <v>1.0</v>
       </c>
       <c r="C229" s="20">
-        <v>5.44686285E8</v>
+        <v>5.05044742E8</v>
       </c>
       <c r="D229" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="44" t="s">
-        <v>261</v>
+      <c r="A230" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="B230" s="20">
         <v>1.0</v>
       </c>
       <c r="C230" s="20">
-        <v>5.38808049E8</v>
+        <v>5.05044633E8</v>
       </c>
       <c r="D230" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="23" t="s">
-        <v>262</v>
+      <c r="A231" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="B231" s="20">
         <v>1.0</v>
       </c>
       <c r="C231" s="20">
-        <v>5.05044633E8</v>
+        <v>5.23962182E8</v>
       </c>
       <c r="D231" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="23" t="s">
-        <v>263</v>
+      <c r="A232" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="B232" s="20">
         <v>1.0</v>
       </c>
       <c r="C232" s="20">
-        <v>5.23962182E8</v>
+        <v>5.37678807E8</v>
       </c>
       <c r="D232" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="23" t="s">
-        <v>264</v>
+      <c r="A233" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="B233" s="20">
         <v>1.0</v>
       </c>
       <c r="C233" s="20">
-        <v>5.37678278E8</v>
+        <v>5.43042829E8</v>
       </c>
       <c r="D233" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="23" t="s">
-        <v>265</v>
+      <c r="A234" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="B234" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C234" s="20">
-        <v>5.43042829E8</v>
+        <v>5.37678852E8</v>
       </c>
       <c r="D234" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="25" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B235" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C235" s="20">
-        <v>5.37678852E8</v>
+        <v>5.05044757E8</v>
       </c>
       <c r="D235" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="25" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B236" s="20">
         <v>1.0</v>
       </c>
       <c r="C236" s="20">
-        <v>5.37674757E8</v>
+        <v>5.05044766E8</v>
       </c>
       <c r="D236" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="25" t="s">
-        <v>268</v>
+      <c r="A237" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="B237" s="20">
         <v>1.0</v>
       </c>
       <c r="C237" s="20">
-        <v>5.37674766E8</v>
+        <v>5.37313013E8</v>
       </c>
       <c r="D237" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="23" t="s">
-        <v>269</v>
+      <c r="A238" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="B238" s="20">
         <v>1.0</v>
       </c>
       <c r="C238" s="20">
-        <v>5.37313013E8</v>
+        <v>5.05044648E8</v>
       </c>
       <c r="D238" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="23" t="s">
-        <v>270</v>
+      <c r="A239" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="B239" s="20">
         <v>1.0</v>
       </c>
       <c r="C239" s="20">
-        <v>5.33345719E8</v>
+        <v>5.37678277E8</v>
       </c>
       <c r="D239" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="23" t="s">
-        <v>271</v>
+      <c r="A240" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="B240" s="20">
         <v>1.0</v>
       </c>
       <c r="C240" s="20">
-        <v>5.24520108E8</v>
+        <v>5.37678312E8</v>
       </c>
       <c r="D240" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="25" t="s">
-        <v>272</v>
+      <c r="A241" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="B241" s="20">
         <v>1.0</v>
       </c>
       <c r="C241" s="20">
-        <v>5.37678312E8</v>
+        <v>5.28929213E8</v>
       </c>
       <c r="D241" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="23" t="s">
-        <v>273</v>
+      <c r="A242" s="25" t="s">
+        <v>275</v>
       </c>
       <c r="B242" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C242" s="20">
-        <v>5.28929213E8</v>
+        <v>5.37678246E8</v>
       </c>
       <c r="D242" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="25" t="s">
-        <v>274</v>
+      <c r="A243" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="B243" s="20">
         <v>2.0</v>
       </c>
       <c r="C243" s="20">
-        <v>5.37678246E8</v>
+        <v>5.37678315E8</v>
       </c>
       <c r="D243" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="23" t="s">
-        <v>275</v>
+      <c r="A244" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="B244" s="20">
         <v>2.0</v>
       </c>
       <c r="C244" s="20">
-        <v>5.37271101E8</v>
+        <v>5.37678759E8</v>
       </c>
       <c r="D244" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="25" t="s">
-        <v>276</v>
+      <c r="A245" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="B245" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C245" s="20">
-        <v>5.37678759E8</v>
+        <v>5.37678815E8</v>
       </c>
       <c r="D245" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="23" t="s">
-        <v>277</v>
+      <c r="A246" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="B246" s="20">
         <v>1.0</v>
       </c>
       <c r="C246" s="20">
-        <v>5.23910813E8</v>
+        <v>5.25599444E8</v>
       </c>
       <c r="D246" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="23" t="s">
-        <v>278</v>
+      <c r="A247" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="B247" s="20">
         <v>1.0</v>
       </c>
       <c r="C247" s="20">
-        <v>5.25599444E8</v>
+        <v>5.46659065E8</v>
       </c>
       <c r="D247" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="23" t="s">
-        <v>279</v>
+      <c r="A248" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="B248" s="20">
         <v>1.0</v>
       </c>
       <c r="C248" s="20">
-        <v>5.46659065E8</v>
+        <v>5.37678322E8</v>
       </c>
       <c r="D248" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="25" t="s">
-        <v>280</v>
+      <c r="A249" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="B249" s="20">
         <v>1.0</v>
       </c>
       <c r="C249" s="20">
-        <v>5.37678322E8</v>
+        <v>5.3444774E8</v>
       </c>
       <c r="D249" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="23" t="s">
-        <v>281</v>
+      <c r="A250" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="B250" s="20">
         <v>1.0</v>
       </c>
       <c r="C250" s="20">
-        <v>5.3444774E8</v>
+        <v>5.37678321E8</v>
       </c>
       <c r="D250" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="23" t="s">
-        <v>282</v>
+      <c r="A251" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="B251" s="20">
         <v>1.0</v>
       </c>
       <c r="C251" s="20">
-        <v>5.04939954E8</v>
+        <v>5.37678631E8</v>
       </c>
       <c r="D251" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="23" t="s">
-        <v>283</v>
+      <c r="A252" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="B252" s="20">
         <v>1.0</v>
       </c>
       <c r="C252" s="20">
-        <v>5.3832016E8</v>
+        <v>5.37678284E8</v>
       </c>
       <c r="D252" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="25" t="s">
-        <v>284</v>
+      <c r="A253" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="B253" s="20">
         <v>1.0</v>
       </c>
       <c r="C253" s="20">
-        <v>5.37678284E8</v>
+        <v>5.062008E8</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="23" t="s">
-        <v>285</v>
+      <c r="A254" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="B254" s="20">
         <v>1.0</v>
       </c>
       <c r="C254" s="20">
-        <v>5.062008E8</v>
+        <v>5.27501414E8</v>
       </c>
       <c r="D254" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="25" t="s">
-        <v>286</v>
+      <c r="A255" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="B255" s="20">
         <v>1.0</v>
       </c>
       <c r="C255" s="20">
-        <v>5.3767475E8</v>
+        <v>5.37678092E8</v>
       </c>
       <c r="D255" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="44" t="s">
-        <v>287</v>
+      <c r="A256" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="B256" s="20">
         <v>1.0</v>
       </c>
       <c r="C256" s="20">
-        <v>5.37678092E8</v>
+        <v>5.3767878E8</v>
       </c>
       <c r="D256" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="23" t="s">
-        <v>288</v>
+      <c r="A257" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="B257" s="20">
         <v>1.0</v>
       </c>
       <c r="C257" s="20">
-        <v>5.3767878E8</v>
+        <v>5.37678622E8</v>
       </c>
       <c r="D257" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="23" t="s">
-        <v>289</v>
+      <c r="A258" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="B258" s="20">
         <v>1.0</v>
       </c>
       <c r="C258" s="20">
-        <v>5.37678622E8</v>
+        <v>5.37678334E8</v>
       </c>
       <c r="D258" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="44" t="s">
-        <v>290</v>
+      <c r="A259" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="B259" s="20">
         <v>1.0</v>
       </c>
       <c r="C259" s="20">
-        <v>5.37678334E8</v>
+        <v>5.37678286E8</v>
       </c>
       <c r="D259" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="23" t="s">
-        <v>291</v>
+      <c r="A260" s="44" t="s">
+        <v>293</v>
       </c>
       <c r="B260" s="20">
         <v>1.0</v>
       </c>
       <c r="C260" s="20">
-        <v>5.37678286E8</v>
+        <v>5.37678574E8</v>
       </c>
       <c r="D260" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="44" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B261" s="20">
         <v>1.0</v>
       </c>
       <c r="C261" s="20">
-        <v>5.37678574E8</v>
+        <v>5.26529618E8</v>
       </c>
       <c r="D261" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B262" s="20">
         <v>1.0</v>
       </c>
       <c r="C262" s="20">
-        <v>5.26529618E8</v>
+        <v>5.3767834E8</v>
       </c>
       <c r="D262" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B263" s="20">
         <v>1.0</v>
       </c>
       <c r="C263" s="20">
-        <v>5.3767834E8</v>
+        <v>5.28209998E8</v>
       </c>
       <c r="D263" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="44" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B264" s="20">
         <v>1.0</v>
       </c>
       <c r="C264" s="20">
-        <v>5.28209998E8</v>
+        <v>5.03573817E8</v>
       </c>
       <c r="D264" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="44" t="s">
-        <v>296</v>
+      <c r="A265" s="45" t="s">
+        <v>298</v>
       </c>
       <c r="B265" s="20">
         <v>1.0</v>
       </c>
       <c r="C265" s="20">
-        <v>5.03573817E8</v>
+        <v>5.27022664E8</v>
       </c>
       <c r="D265" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="45" t="s">
-        <v>297</v>
+      <c r="A266" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="B266" s="20">
         <v>1.0</v>
       </c>
       <c r="C266" s="20">
-        <v>5.27022664E8</v>
+        <v>5.37678318E8</v>
       </c>
       <c r="D266" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B267" s="20">
         <v>1.0</v>
       </c>
       <c r="C267" s="20">
-        <v>5.37678318E8</v>
+        <v>5.38249427E8</v>
       </c>
       <c r="D267" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="44" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B268" s="20">
         <v>1.0</v>
       </c>
       <c r="C268" s="20">
-        <v>5.38249427E8</v>
+        <v>5.37678977E8</v>
       </c>
       <c r="D268" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B269" s="20">
         <v>1.0</v>
       </c>
       <c r="C269" s="20">
-        <v>5.37678977E8</v>
+        <v>5.05044489E8</v>
       </c>
       <c r="D269" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="44" t="s">
-        <v>301</v>
+      <c r="A270" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="B270" s="20">
         <v>1.0</v>
       </c>
       <c r="C270" s="20">
-        <v>5.22950227E8</v>
+        <v>5.09405044E8</v>
       </c>
       <c r="D270" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="23" t="s">
-        <v>302</v>
+      <c r="A271" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="B271" s="20">
         <v>1.0</v>
       </c>
       <c r="C271" s="20">
-        <v>5.09405044E8</v>
+        <v>5.05044716E8</v>
       </c>
       <c r="D271" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="23" t="s">
-        <v>303</v>
+      <c r="A272" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="B272" s="20">
         <v>1.0</v>
       </c>
       <c r="C272" s="20">
-        <v>5.35838936E8</v>
+        <v>5.29928885E8</v>
       </c>
       <c r="D272" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B273" s="20">
         <v>1.0</v>
       </c>
-      <c r="C273" s="20">
-        <v>5.29928885E8</v>
-      </c>
+      <c r="C273" s="20"/>
       <c r="D273" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="44" t="s">
-        <v>305</v>
+      <c r="A274" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="B274" s="20">
         <v>1.0</v>
       </c>
       <c r="C274" s="20">
-        <v>5.37678302E8</v>
+        <v>5.37678285E8</v>
       </c>
       <c r="D274" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="25" t="s">
-        <v>306</v>
+      <c r="A275" s="44" t="s">
+        <v>308</v>
       </c>
       <c r="B275" s="20">
         <v>1.0</v>
       </c>
       <c r="C275" s="20">
-        <v>5.37678285E8</v>
+        <v>5.37678248E8</v>
       </c>
       <c r="D275" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="44" t="s">
-        <v>307</v>
+      <c r="A276" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="B276" s="20">
         <v>1.0</v>
       </c>
       <c r="C276" s="20">
-        <v>5.37678248E8</v>
+        <v>5.2453311E8</v>
       </c>
       <c r="D276" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="46" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B277" s="20">
         <v>1.0</v>
       </c>
       <c r="C277" s="20">
-        <v>5.2453311E8</v>
+        <v>5.37678861E8</v>
       </c>
       <c r="D277" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B278" s="20">
         <v>1.0</v>
       </c>
       <c r="C278" s="20">
-        <v>5.37678861E8</v>
+        <v>5.37678305E8</v>
       </c>
       <c r="D278" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="46" t="s">
-        <v>310</v>
+      <c r="A279" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="B279" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C279" s="20">
-        <v>5.37678305E8</v>
-      </c>
-      <c r="D279" s="43" t="s">
-        <v>234</v>
+        <v>5.0345579E8</v>
+      </c>
+      <c r="D279" s="47" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="23" t="s">
-        <v>311</v>
+      <c r="A280" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="B280" s="20">
         <v>2.0</v>
       </c>
       <c r="C280" s="20">
-        <v>5.0345579E8</v>
+        <v>5.24492276E8</v>
       </c>
       <c r="D280" s="47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="23" t="s">
-        <v>313</v>
+      <c r="A281" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="B281" s="20">
         <v>2.0</v>
       </c>
       <c r="C281" s="20">
-        <v>5.24492276E8</v>
+        <v>5.03386781E8</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="23" t="s">
-        <v>314</v>
+      <c r="A282" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="B282" s="20">
         <v>2.0</v>
       </c>
       <c r="C282" s="20">
-        <v>5.03386781E8</v>
+        <v>5.09035155E8</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="23" t="s">
-        <v>315</v>
+      <c r="A283" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="B283" s="20">
         <v>2.0</v>
       </c>
       <c r="C283" s="20">
-        <v>5.09035155E8</v>
-      </c>
-      <c r="D283" s="47" t="s">
-        <v>312</v>
+        <v>5.24371618E8</v>
+      </c>
+      <c r="D283" s="48" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="23" t="s">
-        <v>316</v>
+      <c r="A284" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="B284" s="20">
         <v>2.0</v>
       </c>
       <c r="C284" s="20">
-        <v>5.24371618E8</v>
+        <v>5.24020776E8</v>
       </c>
       <c r="D284" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="23" t="s">
+      <c r="A285" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B285" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="C285" s="20">
+        <v>5.4723052E8</v>
+      </c>
+      <c r="D285" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B285" s="20">
+      <c r="E285" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B286" s="20">
         <v>2.0</v>
       </c>
-      <c r="C285" s="20">
-        <v>5.24020776E8</v>
-      </c>
-      <c r="D285" s="48" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B286" s="20">
-        <v>5.0</v>
-      </c>
       <c r="C286" s="20">
-        <v>5.4723052E8</v>
+        <v>5.23996314E8</v>
       </c>
       <c r="D286" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="23" t="s">
-        <v>320</v>
+      <c r="A287" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="B287" s="20">
         <v>2.0</v>
       </c>
       <c r="C287" s="20">
-        <v>5.23996314E8</v>
+        <v>5.4533594E8</v>
       </c>
       <c r="D287" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="23" t="s">
-        <v>321</v>
+      <c r="A288" s="25" t="s">
+        <v>324</v>
       </c>
       <c r="B288" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C288" s="20">
-        <v>5.4533594E8</v>
+        <v>5.03871282E8</v>
       </c>
       <c r="D288" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="25" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B289" s="20">
         <v>1.0</v>
       </c>
       <c r="C289" s="20">
-        <v>5.03871282E8</v>
+        <v>5.43190162E8</v>
       </c>
       <c r="D289" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="23" t="s">
-        <v>323</v>
+      <c r="A290" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="B290" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C290" s="20">
+        <v>5.46294344E8</v>
+      </c>
+      <c r="D290" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B291" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C291" s="20">
+        <v>5.28798088E8</v>
+      </c>
+      <c r="D291" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B292" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C292" s="20">
+        <v>5.47970236E8</v>
+      </c>
+      <c r="D292" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B293" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C293" s="20">
+        <v>5.47980236E8</v>
+      </c>
+      <c r="D293" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B294" s="20">
         <v>2.0</v>
       </c>
-      <c r="C290" s="20">
+      <c r="C294" s="20">
+        <v>5.45535573E8</v>
+      </c>
+      <c r="D294" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K294" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B295" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C295" s="20">
+        <v>5.49535571E8</v>
+      </c>
+      <c r="D295" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B296" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C296" s="20">
+        <v>5.26625678E8</v>
+      </c>
+      <c r="D296" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B297" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C297" s="20">
+        <v>5.28262961E8</v>
+      </c>
+      <c r="D297" s="48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B298" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C298" s="20">
         <v>5.23650013E8</v>
       </c>
-      <c r="D290" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="B291" s="20">
+      <c r="D298" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B299" s="20">
         <v>4.0</v>
       </c>
-      <c r="C291" s="20">
+      <c r="C299" s="20">
         <v>5.08281287E8</v>
       </c>
-      <c r="D291" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B292" s="20">
+      <c r="D299" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B300" s="20">
         <v>2.0</v>
       </c>
-      <c r="C292" s="20">
-        <v>5.45601439E8</v>
-      </c>
-      <c r="D292" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B293" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C293" s="20">
-        <v>5.47630336E8</v>
-      </c>
-      <c r="D293" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B294" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C294" s="20">
-        <v>5.26025724E8</v>
-      </c>
-      <c r="D294" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="B295" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C295" s="20">
-        <v>5.25770507E8</v>
-      </c>
-      <c r="D295" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B296" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C296" s="20">
-        <v>5.24708807E8</v>
-      </c>
-      <c r="D296" s="51" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B297" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C297" s="20">
-        <v>5.05858141E8</v>
-      </c>
-      <c r="D297" s="51" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="298" ht="17.25" customHeight="1">
-      <c r="A298" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B298" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C298" s="20">
-        <v>5.23953711E8</v>
-      </c>
-      <c r="D298" s="51" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="B299" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C299" s="20">
-        <v>5.07344119E8</v>
-      </c>
-      <c r="D299" s="51" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="16" t="s">
+      <c r="C300" s="20">
+        <v>5.07747164E8</v>
+      </c>
+      <c r="D300" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="B300" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C300" s="20">
-        <v>5.32100004E8</v>
-      </c>
-      <c r="D300" s="51" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="301">
-      <c r="A301" s="23" t="s">
-        <v>337</v>
+      <c r="A301" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="B301" s="20">
         <v>2.0</v>
       </c>
       <c r="C301" s="20">
-        <v>5.06493714E8</v>
-      </c>
-      <c r="D301" s="52" t="s">
-        <v>338</v>
+        <v>5.47630336E8</v>
+      </c>
+      <c r="D301" s="49" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="23" t="s">
-        <v>339</v>
+      <c r="A302" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="B302" s="20">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C302" s="20">
-        <v>5.33363195E8</v>
-      </c>
-      <c r="D302" s="52" t="s">
-        <v>338</v>
+        <v>5.26025724E8</v>
+      </c>
+      <c r="D302" s="50" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="23" t="s">
-        <v>340</v>
+      <c r="A303" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="B303" s="20">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C303" s="20">
-        <v>5.42123024E8</v>
-      </c>
-      <c r="D303" s="52" t="s">
-        <v>338</v>
+        <v>5.25770507E8</v>
+      </c>
+      <c r="D303" s="50" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="23" t="s">
-        <v>341</v>
+      <c r="A304" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="B304" s="20">
         <v>2.0</v>
       </c>
       <c r="C304" s="20">
+        <v>5.39260903E8</v>
+      </c>
+      <c r="D304" s="50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B305" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C305" s="20">
+        <v>5.24708807E8</v>
+      </c>
+      <c r="D305" s="51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B306" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C306" s="20">
+        <v>5.05858141E8</v>
+      </c>
+      <c r="D306" s="51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="307" ht="17.25" customHeight="1">
+      <c r="A307" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B307" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C307" s="20">
+        <v>5.23953711E8</v>
+      </c>
+      <c r="D307" s="51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B308" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C308" s="20">
+        <v>5.07344119E8</v>
+      </c>
+      <c r="D308" s="51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B309" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C309" s="20">
+        <v>5.32100004E8</v>
+      </c>
+      <c r="D309" s="51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B310" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C310" s="20">
+        <v>5.06493714E8</v>
+      </c>
+      <c r="D310" s="52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B311" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C311" s="20">
+        <v>5.33363195E8</v>
+      </c>
+      <c r="D311" s="52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B312" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C312" s="20">
+        <v>5.42123024E8</v>
+      </c>
+      <c r="D312" s="52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B313" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C313" s="20">
         <v>5.47193716E8</v>
       </c>
-      <c r="D304" s="52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B305" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C305" s="20">
+      <c r="D313" s="52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B314" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C314" s="20">
         <v>5.24882344E8</v>
       </c>
-      <c r="D305" s="52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B306" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C306" s="20">
+      <c r="D314" s="52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B315" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C315" s="20">
         <v>5.45407678E8</v>
       </c>
-      <c r="D306" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B307" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C307" s="20">
+      <c r="D315" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B316" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C316" s="20">
         <v>5.24298958E8</v>
       </c>
-      <c r="D307" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="B308" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C308" s="20">
+      <c r="D316" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B317" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C317" s="20">
         <v>5.43075877E8</v>
       </c>
-      <c r="D308" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="B309" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C309" s="20">
+      <c r="D317" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B318" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C318" s="20">
         <v>5.07447346E8</v>
       </c>
-      <c r="D309" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="B310" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C310" s="20">
+      <c r="D318" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B319" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C319" s="20">
         <v>5.45677528E8</v>
       </c>
-      <c r="D310" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="B311" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C311" s="20">
+      <c r="D319" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B320" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C320" s="20">
         <v>5.47848776E8</v>
       </c>
-      <c r="D311" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="B312" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C312" s="20">
+      <c r="D320" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B321" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C321" s="20">
         <v>5.05741628E8</v>
       </c>
-      <c r="D312" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B313" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C313" s="20">
+      <c r="D321" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B322" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C322" s="20">
         <v>5.28842558E8</v>
       </c>
-      <c r="D313" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="B314" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C314" s="20">
+      <c r="D322" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B323" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C323" s="20">
         <v>5.4808222E8</v>
       </c>
-      <c r="D314" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="B315" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C315" s="20">
+      <c r="D323" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="B324" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C324" s="20">
         <v>5.45299086E8</v>
       </c>
-      <c r="D315" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B316" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C316" s="20">
-        <v>5.26898625E8</v>
-      </c>
-      <c r="D316" s="52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="B317" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C317" s="20">
+      <c r="D324" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B325" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C325" s="20">
+        <v>5.26898626E8</v>
+      </c>
+      <c r="D325" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B326" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C326" s="20">
         <v>5.4646097E8</v>
       </c>
-      <c r="D317" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B318" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C318" s="20">
+      <c r="D326" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B327" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C327" s="20">
         <v>5.0697993E8</v>
       </c>
-      <c r="D318" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="B319" s="20">
+      <c r="D327" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B328" s="20">
         <v>2.0</v>
       </c>
-      <c r="C319" s="20">
+      <c r="C328" s="20">
         <v>5.4473459E8</v>
       </c>
-      <c r="D319" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="B320" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C320" s="20">
+      <c r="D328" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B329" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C329" s="20">
         <v>5.28628018E8</v>
       </c>
-      <c r="D320" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="B321" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C321" s="20">
+      <c r="D329" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B330" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C330" s="20">
         <v>5.47729912E8</v>
       </c>
-      <c r="D321" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B322" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C322" s="20">
+      <c r="D330" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B331" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C331" s="20">
         <v>5.47944501E8</v>
       </c>
-      <c r="D322" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B323" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C323" s="20">
+      <c r="D331" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B332" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C332" s="20">
         <v>5.2860992E8</v>
       </c>
-      <c r="D323" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="B324" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C324" s="20">
+      <c r="D332" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B333" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C333" s="20">
         <v>5.24148278E8</v>
       </c>
-      <c r="D324" s="53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="B325" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C325" s="20">
+      <c r="D333" s="53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B334" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C334" s="20">
         <v>5.4576764E8</v>
       </c>
-      <c r="D325" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="B326" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C326" s="20">
+      <c r="D334" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B335" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C335" s="20">
         <v>5.04078816E8</v>
       </c>
-      <c r="D326" s="54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B327" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C327" s="20">
+      <c r="D335" s="54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B336" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C336" s="20">
         <v>5.35322774E8</v>
       </c>
-      <c r="D327" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B328" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C328" s="20">
+      <c r="D336" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B337" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C337" s="20">
         <v>5.27044823E8</v>
       </c>
-      <c r="D328" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B329" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C329" s="20">
+      <c r="D337" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B338" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C338" s="20">
         <v>5.26547679E8</v>
       </c>
-      <c r="D329" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="B330" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C330" s="20">
+      <c r="D338" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B339" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C339" s="20">
         <v>5.03042291E8</v>
       </c>
-      <c r="D330" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B331" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C331" s="20">
+      <c r="D339" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B340" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C340" s="20">
         <v>5.08259208E8</v>
       </c>
-      <c r="D331" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="B332" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C332" s="20">
+      <c r="D340" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B341" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C341" s="20">
         <v>5.46853793E8</v>
       </c>
-      <c r="D332" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B333" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C333" s="20">
+      <c r="D341" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B342" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C342" s="20">
         <v>5.86870807E8</v>
       </c>
-      <c r="D333" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="B334" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C334" s="20">
+      <c r="D342" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B343" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C343" s="20">
         <v>5.42444578E8</v>
       </c>
-      <c r="D334" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="55" t="s">
-        <v>377</v>
-      </c>
-      <c r="B335" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C335" s="20">
+      <c r="D343" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="B344" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C344" s="20">
         <v>5.09219874E8</v>
       </c>
-      <c r="D335" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="B336" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C336" s="20">
+      <c r="D344" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B345" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C345" s="20">
         <v>5.0243865E8</v>
       </c>
-      <c r="D336" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="23" t="s">
+      <c r="D345" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="B337" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C337" s="20">
+    </row>
+    <row r="346">
+      <c r="A346" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B346" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C346" s="20">
         <v>5.22222069E8</v>
       </c>
-      <c r="D337" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="B338" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C338" s="20">
+      <c r="D346" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B347" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C347" s="20">
         <v>5.25427572E8</v>
       </c>
-      <c r="D338" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="B339" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C339" s="20">
+      <c r="D347" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="B348" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C348" s="20">
         <v>5.05889486E8</v>
       </c>
-      <c r="D339" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B340" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C340" s="20">
+      <c r="D348" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B349" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C349" s="20">
         <v>5.0537035E8</v>
       </c>
-      <c r="D340" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="B341" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C341" s="20">
+      <c r="D349" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B350" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C350" s="20">
         <v>5.34227008E8</v>
       </c>
-      <c r="D341" s="54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="B342" s="56">
-        <f>SUM(B2:B341)</f>
-        <v>411</v>
-      </c>
-      <c r="D342" s="57"/>
-    </row>
-    <row r="343">
-      <c r="D343" s="57"/>
-    </row>
-    <row r="344">
-      <c r="D344" s="57"/>
-    </row>
-    <row r="345">
-      <c r="D345" s="57"/>
-    </row>
-    <row r="346">
-      <c r="D346" s="57"/>
-    </row>
-    <row r="347">
-      <c r="D347" s="57"/>
-    </row>
-    <row r="348">
-      <c r="D348" s="57"/>
-    </row>
-    <row r="349">
-      <c r="D349" s="57"/>
-    </row>
-    <row r="350">
-      <c r="D350" s="57"/>
+      <c r="D350" s="54" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="351">
+      <c r="B351" s="56">
+        <f>SUM(B2:B350)</f>
+        <v>422</v>
+      </c>
       <c r="D351" s="57"/>
     </row>
     <row r="352">
@@ -8751,22 +8902,49 @@
     <row r="1025">
       <c r="D1025" s="57"/>
     </row>
+    <row r="1026">
+      <c r="D1026" s="57"/>
+    </row>
+    <row r="1027">
+      <c r="D1027" s="57"/>
+    </row>
+    <row r="1028">
+      <c r="D1028" s="57"/>
+    </row>
+    <row r="1029">
+      <c r="D1029" s="57"/>
+    </row>
+    <row r="1030">
+      <c r="D1030" s="57"/>
+    </row>
+    <row r="1031">
+      <c r="D1031" s="57"/>
+    </row>
+    <row r="1032">
+      <c r="D1032" s="57"/>
+    </row>
+    <row r="1033">
+      <c r="D1033" s="57"/>
+    </row>
+    <row r="1034">
+      <c r="D1034" s="57"/>
+    </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -8803,7 +8981,8 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -8815,7 +8994,6 @@
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
